--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_24_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_24_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>528046.3928673327</v>
+        <v>527372.1266485222</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10305771.19863255</v>
+        <v>10305771.19863254</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1373,64 +1373,64 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>46.38220823434497</v>
+      </c>
+      <c r="V11" t="n">
+        <v>44.35725148088084</v>
+      </c>
+      <c r="W11" t="n">
         <v>103.0193684323635</v>
-      </c>
-      <c r="G11" t="n">
-        <v>103.0193684323635</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>46.382208234345</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>44.35725148088084</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>20.99909704345513</v>
+        <v>20.9990970434551</v>
       </c>
       <c r="V12" t="n">
-        <v>27.87492793801135</v>
+        <v>27.87492793801133</v>
       </c>
       <c r="W12" t="n">
-        <v>46.76932394950569</v>
+        <v>46.76932394950566</v>
       </c>
       <c r="X12" t="n">
-        <v>0.8473259920635599</v>
+        <v>0.8473259920635314</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.757036565890445</v>
+        <v>0.7570365658904166</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>15.3986971683501</v>
+        <v>15.39869716835007</v>
       </c>
       <c r="T13" t="n">
-        <v>22.11468578343624</v>
+        <v>22.11468578343621</v>
       </c>
       <c r="U13" t="n">
-        <v>81.38181383316083</v>
+        <v>81.38181383316081</v>
       </c>
       <c r="V13" t="n">
-        <v>47.21198411241409</v>
+        <v>47.21198411241406</v>
       </c>
       <c r="W13" t="n">
-        <v>81.59733912517709</v>
+        <v>81.59733912517706</v>
       </c>
       <c r="X13" t="n">
-        <v>20.78399617762324</v>
+        <v>20.78399617762321</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.65899414068087</v>
+        <v>13.65899414068085</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>28.25463438122087</v>
       </c>
       <c r="D14" t="n">
-        <v>44.35725148088075</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>16.1026170996599</v>
       </c>
       <c r="U14" t="n">
-        <v>46.38220823434503</v>
+        <v>46.38220823434497</v>
       </c>
       <c r="V14" t="n">
         <v>103.0193684323635</v>
       </c>
       <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>103.0193684323635</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>20.99909704345516</v>
+        <v>20.9990970434551</v>
       </c>
       <c r="V15" t="n">
-        <v>27.87492793801138</v>
+        <v>27.87492793801133</v>
       </c>
       <c r="W15" t="n">
-        <v>46.76932394950572</v>
+        <v>46.76932394950566</v>
       </c>
       <c r="X15" t="n">
-        <v>0.8473259920635883</v>
+        <v>0.8473259920635314</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.7570365658904734</v>
+        <v>0.7570365658904166</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>15.39869716835013</v>
+        <v>15.39869716835007</v>
       </c>
       <c r="T16" t="n">
-        <v>22.11468578343627</v>
+        <v>22.11468578343621</v>
       </c>
       <c r="U16" t="n">
-        <v>81.38181383316086</v>
+        <v>81.38181383316081</v>
       </c>
       <c r="V16" t="n">
-        <v>47.21198411241411</v>
+        <v>47.21198411241406</v>
       </c>
       <c r="W16" t="n">
-        <v>81.59733912517711</v>
+        <v>81.59733912517706</v>
       </c>
       <c r="X16" t="n">
-        <v>20.78399617762327</v>
+        <v>20.78399617762321</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.6589941406809</v>
+        <v>13.65899414068085</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.09616909148855</v>
+        <v>48.09616909148849</v>
       </c>
       <c r="C17" t="n">
-        <v>30.63521919901552</v>
+        <v>30.63521919901547</v>
       </c>
       <c r="D17" t="n">
-        <v>20.04536904869093</v>
+        <v>20.04536904869087</v>
       </c>
       <c r="E17" t="n">
-        <v>47.29269750026975</v>
+        <v>47.2926975002697</v>
       </c>
       <c r="F17" t="n">
-        <v>72.23837316971941</v>
+        <v>72.23837316971935</v>
       </c>
       <c r="G17" t="n">
-        <v>80.19274666717331</v>
+        <v>80.19274666717322</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14.60329614542098</v>
+        <v>14.60329614542093</v>
       </c>
       <c r="X17" t="n">
-        <v>35.09342810647701</v>
+        <v>35.09342810647695</v>
       </c>
       <c r="Y17" t="n">
-        <v>51.60026608406156</v>
+        <v>51.6002660840615</v>
       </c>
     </row>
     <row r="18">
@@ -2090,7 +2090,7 @@
         <v>47.2926975002697</v>
       </c>
       <c r="F20" t="n">
-        <v>72.23837316971935</v>
+        <v>72.23837316971913</v>
       </c>
       <c r="G20" t="n">
         <v>80.19274666717325</v>
@@ -2144,7 +2144,7 @@
         <v>14.60329614542093</v>
       </c>
       <c r="X20" t="n">
-        <v>35.09342810647687</v>
+        <v>35.09342810647695</v>
       </c>
       <c r="Y20" t="n">
         <v>51.6002660840615</v>
@@ -2555,16 +2555,16 @@
         <v>190.4670024273979</v>
       </c>
       <c r="C26" t="n">
-        <v>173.0060525349249</v>
+        <v>173.0060525349248</v>
       </c>
       <c r="D26" t="n">
-        <v>162.4162023846003</v>
+        <v>162.4162023846002</v>
       </c>
       <c r="E26" t="n">
         <v>189.6635308361791</v>
       </c>
       <c r="F26" t="n">
-        <v>214.6092065056288</v>
+        <v>214.6092065056287</v>
       </c>
       <c r="G26" t="n">
         <v>222.5635800030826</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>5.990277636502345</v>
+        <v>5.990277636502295</v>
       </c>
       <c r="T26" t="n">
-        <v>28.76143707499118</v>
+        <v>28.76143707499113</v>
       </c>
       <c r="U26" t="n">
-        <v>59.04102820967626</v>
+        <v>59.0410282096762</v>
       </c>
       <c r="V26" t="n">
         <v>135.4854192340522</v>
       </c>
       <c r="W26" t="n">
-        <v>156.9741294813304</v>
+        <v>156.9741294813303</v>
       </c>
       <c r="X26" t="n">
-        <v>177.4642614423864</v>
+        <v>177.4642614423863</v>
       </c>
       <c r="Y26" t="n">
         <v>193.9710994199709</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>6.879280512658507</v>
+        <v>6.879280512658452</v>
       </c>
       <c r="U27" t="n">
-        <v>33.65791701878639</v>
+        <v>33.65791701878633</v>
       </c>
       <c r="V27" t="n">
-        <v>40.53374791334261</v>
+        <v>40.53374791334255</v>
       </c>
       <c r="W27" t="n">
-        <v>59.42814392483695</v>
+        <v>59.42814392483689</v>
       </c>
       <c r="X27" t="n">
-        <v>13.50614596739481</v>
+        <v>13.50614596739476</v>
       </c>
       <c r="Y27" t="n">
-        <v>13.4158565412217</v>
+        <v>13.41585654122164</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>28.05751714368135</v>
+        <v>28.0575171436813</v>
       </c>
       <c r="T28" t="n">
-        <v>34.7735057587675</v>
+        <v>34.77350575876744</v>
       </c>
       <c r="U28" t="n">
-        <v>94.04063380849209</v>
+        <v>94.04063380849203</v>
       </c>
       <c r="V28" t="n">
-        <v>59.87080408774534</v>
+        <v>59.87080408774528</v>
       </c>
       <c r="W28" t="n">
-        <v>94.25615910050834</v>
+        <v>94.25615910050828</v>
       </c>
       <c r="X28" t="n">
-        <v>33.44281615295449</v>
+        <v>33.44281615295444</v>
       </c>
       <c r="Y28" t="n">
-        <v>26.31781411601213</v>
+        <v>26.31781411601207</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>190.4670024273979</v>
+        <v>190.4670024273978</v>
       </c>
       <c r="C29" t="n">
         <v>173.0060525349248</v>
@@ -2798,7 +2798,7 @@
         <v>162.4162023846002</v>
       </c>
       <c r="E29" t="n">
-        <v>189.6635308361791</v>
+        <v>189.663530836179</v>
       </c>
       <c r="F29" t="n">
         <v>214.6092065056287</v>
@@ -2807,7 +2807,7 @@
         <v>222.5635800030826</v>
       </c>
       <c r="H29" t="n">
-        <v>142.3708333359094</v>
+        <v>142.3708333359093</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>5.990277636502292</v>
+        <v>5.99027763650226</v>
       </c>
       <c r="T29" t="n">
-        <v>28.76143707499113</v>
+        <v>28.7614370749911</v>
       </c>
       <c r="U29" t="n">
-        <v>59.0410282096762</v>
+        <v>59.04102820967617</v>
       </c>
       <c r="V29" t="n">
         <v>135.4854192340522</v>
@@ -2858,7 +2858,7 @@
         <v>177.4642614423863</v>
       </c>
       <c r="Y29" t="n">
-        <v>193.9710994199709</v>
+        <v>193.9710994199708</v>
       </c>
     </row>
     <row r="30">
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>6.879280512658451</v>
+        <v>6.879280512658422</v>
       </c>
       <c r="U30" t="n">
-        <v>33.65791701878633</v>
+        <v>33.6579170187863</v>
       </c>
       <c r="V30" t="n">
-        <v>40.53374791334255</v>
+        <v>40.53374791334252</v>
       </c>
       <c r="W30" t="n">
-        <v>59.42814392483689</v>
+        <v>59.42814392483686</v>
       </c>
       <c r="X30" t="n">
-        <v>13.50614596739476</v>
+        <v>13.50614596739473</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.41585654122164</v>
+        <v>13.41585654122161</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>28.0575171436813</v>
+        <v>28.05751714368127</v>
       </c>
       <c r="T31" t="n">
-        <v>34.77350575876744</v>
+        <v>34.77350575876741</v>
       </c>
       <c r="U31" t="n">
-        <v>94.04063380849203</v>
+        <v>94.040633808492</v>
       </c>
       <c r="V31" t="n">
-        <v>59.87080408774528</v>
+        <v>59.87080408774526</v>
       </c>
       <c r="W31" t="n">
-        <v>94.25615910050828</v>
+        <v>94.25615910050826</v>
       </c>
       <c r="X31" t="n">
-        <v>33.44281615295444</v>
+        <v>33.44281615295441</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.31781411601207</v>
+        <v>26.31781411601204</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3029,10 @@
         <v>190.4670024273979</v>
       </c>
       <c r="C32" t="n">
-        <v>173.0060525349249</v>
+        <v>173.0060525349248</v>
       </c>
       <c r="D32" t="n">
-        <v>162.4162023846003</v>
+        <v>162.4162023846002</v>
       </c>
       <c r="E32" t="n">
         <v>189.6635308361791</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>5.990277636502327</v>
+        <v>5.990277636502299</v>
       </c>
       <c r="T32" t="n">
-        <v>28.76143707499116</v>
+        <v>28.76143707499114</v>
       </c>
       <c r="U32" t="n">
-        <v>59.04102820967623</v>
+        <v>59.0410282096762</v>
       </c>
       <c r="V32" t="n">
         <v>135.4854192340522</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>6.879280512658479</v>
+        <v>6.87928051265845</v>
       </c>
       <c r="U33" t="n">
-        <v>33.65791701878636</v>
+        <v>33.65791701878633</v>
       </c>
       <c r="V33" t="n">
-        <v>40.53374791334258</v>
+        <v>40.53374791334255</v>
       </c>
       <c r="W33" t="n">
-        <v>59.42814392483692</v>
+        <v>59.42814392483689</v>
       </c>
       <c r="X33" t="n">
-        <v>13.50614596739479</v>
+        <v>13.50614596739476</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.41585654122167</v>
+        <v>13.41585654122164</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>28.05751714368132</v>
+        <v>28.0575171436813</v>
       </c>
       <c r="T34" t="n">
-        <v>34.77350575876747</v>
+        <v>34.77350575876744</v>
       </c>
       <c r="U34" t="n">
-        <v>94.04063380849206</v>
+        <v>94.04063380849203</v>
       </c>
       <c r="V34" t="n">
-        <v>59.87080408774531</v>
+        <v>59.87080408774528</v>
       </c>
       <c r="W34" t="n">
-        <v>94.25615910050831</v>
+        <v>94.25615910050828</v>
       </c>
       <c r="X34" t="n">
-        <v>33.44281615295446</v>
+        <v>33.44281615295444</v>
       </c>
       <c r="Y34" t="n">
-        <v>26.3178141160121</v>
+        <v>26.31781411601207</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>160.0465149023293</v>
+        <v>160.0465149023292</v>
       </c>
       <c r="C35" t="n">
-        <v>142.5855650098563</v>
+        <v>142.5855650098562</v>
       </c>
       <c r="D35" t="n">
-        <v>131.9957148595317</v>
+        <v>131.9957148595316</v>
       </c>
       <c r="E35" t="n">
         <v>159.2430433111105</v>
       </c>
       <c r="F35" t="n">
-        <v>184.1887189805602</v>
+        <v>184.1887189805601</v>
       </c>
       <c r="G35" t="n">
-        <v>192.1430924780141</v>
+        <v>192.143092478014</v>
       </c>
       <c r="H35" t="n">
         <v>111.9503458108408</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>28.62054068460765</v>
+        <v>28.62054068460759</v>
       </c>
       <c r="V35" t="n">
         <v>105.0649317089836</v>
@@ -3329,7 +3329,7 @@
         <v>126.5536419562617</v>
       </c>
       <c r="X35" t="n">
-        <v>147.0437739173178</v>
+        <v>147.0437739173177</v>
       </c>
       <c r="Y35" t="n">
         <v>163.5506118949023</v>
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.237429493717776</v>
+        <v>3.237429493717719</v>
       </c>
       <c r="V36" t="n">
-        <v>10.113260388274</v>
+        <v>10.11326038827394</v>
       </c>
       <c r="W36" t="n">
-        <v>29.00765639976834</v>
+        <v>29.00765639976828</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.353018233698887</v>
+        <v>4.353018233698831</v>
       </c>
       <c r="U37" t="n">
-        <v>63.62014628342347</v>
+        <v>63.62014628342342</v>
       </c>
       <c r="V37" t="n">
-        <v>29.45031656267673</v>
+        <v>29.45031656267668</v>
       </c>
       <c r="W37" t="n">
-        <v>63.83567157543973</v>
+        <v>63.83567157543968</v>
       </c>
       <c r="X37" t="n">
-        <v>3.022328627885884</v>
+        <v>3.022328627885827</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>131.9957148595316</v>
       </c>
       <c r="E38" t="n">
-        <v>159.2430433111104</v>
+        <v>159.2430433111105</v>
       </c>
       <c r="F38" t="n">
         <v>184.1887189805601</v>
@@ -3518,7 +3518,7 @@
         <v>192.143092478014</v>
       </c>
       <c r="H38" t="n">
-        <v>111.9503458108407</v>
+        <v>111.9503458108408</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>28.62054068460756</v>
+        <v>28.62054068460759</v>
       </c>
       <c r="V38" t="n">
         <v>105.0649317089836</v>
@@ -3569,7 +3569,7 @@
         <v>147.0437739173177</v>
       </c>
       <c r="Y38" t="n">
-        <v>163.5506118949022</v>
+        <v>163.5506118949023</v>
       </c>
     </row>
     <row r="39">
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.23742949371769</v>
+        <v>3.237429493717719</v>
       </c>
       <c r="V39" t="n">
-        <v>10.11326038827391</v>
+        <v>10.11326038827394</v>
       </c>
       <c r="W39" t="n">
-        <v>29.00765639976825</v>
+        <v>29.00765639976828</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.353018233698802</v>
+        <v>4.353018233698831</v>
       </c>
       <c r="U40" t="n">
-        <v>63.62014628342339</v>
+        <v>63.62014628342342</v>
       </c>
       <c r="V40" t="n">
-        <v>29.45031656267665</v>
+        <v>29.45031656267668</v>
       </c>
       <c r="W40" t="n">
-        <v>63.83567157543965</v>
+        <v>63.83567157543968</v>
       </c>
       <c r="X40" t="n">
-        <v>3.022328627885798</v>
+        <v>3.022328627885827</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>131.9957148595316</v>
       </c>
       <c r="E41" t="n">
-        <v>159.2430433111105</v>
+        <v>159.2430433111104</v>
       </c>
       <c r="F41" t="n">
         <v>184.1887189805601</v>
@@ -3755,7 +3755,7 @@
         <v>192.143092478014</v>
       </c>
       <c r="H41" t="n">
-        <v>111.9503458108408</v>
+        <v>111.9503458108407</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>28.62054068460759</v>
+        <v>28.62054068460756</v>
       </c>
       <c r="V41" t="n">
         <v>105.0649317089836</v>
@@ -3806,7 +3806,7 @@
         <v>147.0437739173177</v>
       </c>
       <c r="Y41" t="n">
-        <v>163.5506118949023</v>
+        <v>163.5506118949022</v>
       </c>
     </row>
     <row r="42">
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.237429493717719</v>
+        <v>3.23742949371769</v>
       </c>
       <c r="V42" t="n">
-        <v>10.11326038827394</v>
+        <v>10.11326038827391</v>
       </c>
       <c r="W42" t="n">
-        <v>29.00765639976828</v>
+        <v>29.00765639976825</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4.353018233698831</v>
+        <v>4.353018233698802</v>
       </c>
       <c r="U43" t="n">
-        <v>63.62014628342342</v>
+        <v>63.62014628342339</v>
       </c>
       <c r="V43" t="n">
-        <v>29.45031656267668</v>
+        <v>29.45031656267665</v>
       </c>
       <c r="W43" t="n">
-        <v>63.83567157543968</v>
+        <v>63.83567157543965</v>
       </c>
       <c r="X43" t="n">
-        <v>3.022328627885827</v>
+        <v>3.022328627885798</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>142.5855650098562</v>
       </c>
       <c r="D44" t="n">
-        <v>131.9957148595316</v>
+        <v>131.9957148595319</v>
       </c>
       <c r="E44" t="n">
-        <v>159.2430433111105</v>
+        <v>159.2430433111104</v>
       </c>
       <c r="F44" t="n">
         <v>184.1887189805601</v>
@@ -3992,7 +3992,7 @@
         <v>192.143092478014</v>
       </c>
       <c r="H44" t="n">
-        <v>111.9503458108408</v>
+        <v>111.9503458108407</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>28.62054068460759</v>
+        <v>28.62054068460756</v>
       </c>
       <c r="V44" t="n">
         <v>105.0649317089836</v>
@@ -4043,7 +4043,7 @@
         <v>147.0437739173177</v>
       </c>
       <c r="Y44" t="n">
-        <v>163.5506118949023</v>
+        <v>163.5506118949022</v>
       </c>
     </row>
     <row r="45">
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>3.237429493717719</v>
+        <v>3.23742949371769</v>
       </c>
       <c r="V45" t="n">
-        <v>10.11326038827394</v>
+        <v>10.11326038827391</v>
       </c>
       <c r="W45" t="n">
-        <v>29.00765639976828</v>
+        <v>29.00765639976825</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>4.353018233698831</v>
+        <v>4.353018233698802</v>
       </c>
       <c r="U46" t="n">
-        <v>63.62014628342342</v>
+        <v>63.62014628342339</v>
       </c>
       <c r="V46" t="n">
-        <v>29.45031656267668</v>
+        <v>29.45031656267665</v>
       </c>
       <c r="W46" t="n">
-        <v>63.83567157543968</v>
+        <v>63.83567157543965</v>
       </c>
       <c r="X46" t="n">
-        <v>3.022328627885827</v>
+        <v>3.022328627885798</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,55 +5015,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.3614857015861</v>
+        <v>112.3015175880876</v>
       </c>
       <c r="C11" t="n">
-        <v>216.3614857015861</v>
+        <v>112.3015175880876</v>
       </c>
       <c r="D11" t="n">
-        <v>216.3614857015861</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="E11" t="n">
-        <v>216.3614857015861</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="F11" t="n">
-        <v>112.3015175880876</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="G11" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="H11" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="I11" t="n">
-        <v>8.241549474589084</v>
+        <v>20.77378125016701</v>
       </c>
       <c r="J11" t="n">
-        <v>37.98123495754303</v>
+        <v>20.77378125016701</v>
       </c>
       <c r="K11" t="n">
-        <v>82.44853438022838</v>
+        <v>65.24108067285239</v>
       </c>
       <c r="L11" t="n">
-        <v>184.4377091282683</v>
+        <v>167.2302554208923</v>
       </c>
       <c r="M11" t="n">
-        <v>241.3769477631851</v>
+        <v>224.1694940558091</v>
       </c>
       <c r="N11" t="n">
-        <v>243.4706558897568</v>
+        <v>224.1694940558091</v>
       </c>
       <c r="O11" t="n">
-        <v>243.4706558897568</v>
+        <v>326.158668803849</v>
       </c>
       <c r="P11" t="n">
-        <v>284.6671516088096</v>
+        <v>371.473256329968</v>
       </c>
       <c r="Q11" t="n">
-        <v>386.6563263568495</v>
+        <v>412.0774737294541</v>
       </c>
       <c r="R11" t="n">
-        <v>405.4756168140135</v>
+        <v>412.0774737294541</v>
       </c>
       <c r="S11" t="n">
         <v>412.0774737294541</v>
@@ -5075,16 +5075,16 @@
         <v>365.2267583412269</v>
       </c>
       <c r="V11" t="n">
-        <v>365.2267583412269</v>
+        <v>320.4214538150846</v>
       </c>
       <c r="W11" t="n">
-        <v>320.4214538150846</v>
+        <v>216.3614857015861</v>
       </c>
       <c r="X11" t="n">
-        <v>320.4214538150846</v>
+        <v>216.3614857015861</v>
       </c>
       <c r="Y11" t="n">
-        <v>320.4214538150846</v>
+        <v>216.3614857015861</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="C12" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="D12" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="E12" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="F12" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="G12" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="H12" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="I12" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="J12" t="n">
-        <v>8.241549474589084</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="K12" t="n">
-        <v>8.241549474589084</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="L12" t="n">
-        <v>8.241549474589084</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="M12" t="n">
-        <v>8.241549474589084</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="N12" t="n">
-        <v>106.471561079565</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="O12" t="n">
-        <v>106.471561079565</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="P12" t="n">
-        <v>106.471561079565</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="Q12" t="n">
-        <v>106.471561079565</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="R12" t="n">
-        <v>106.471561079565</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="S12" t="n">
-        <v>106.471561079565</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="T12" t="n">
-        <v>106.471561079565</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="U12" t="n">
-        <v>85.26035194476187</v>
+        <v>85.26035194476175</v>
       </c>
       <c r="V12" t="n">
-        <v>57.10385907808373</v>
+        <v>57.10385907808364</v>
       </c>
       <c r="W12" t="n">
-        <v>9.862117714946665</v>
+        <v>9.862117714946605</v>
       </c>
       <c r="X12" t="n">
-        <v>9.006232874478423</v>
+        <v>9.006232874478391</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="C13" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="D13" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="E13" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="F13" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="G13" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="H13" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="I13" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="J13" t="n">
-        <v>8.241549474589084</v>
+        <v>100.2216021012432</v>
       </c>
       <c r="K13" t="n">
-        <v>110.230724222629</v>
+        <v>100.2216021012432</v>
       </c>
       <c r="L13" t="n">
-        <v>191.2498599193194</v>
+        <v>100.2216021012432</v>
       </c>
       <c r="M13" t="n">
-        <v>191.2498599193194</v>
+        <v>100.2216021012432</v>
       </c>
       <c r="N13" t="n">
-        <v>293.2390346673593</v>
+        <v>197.7878113994676</v>
       </c>
       <c r="O13" t="n">
-        <v>293.2390346673593</v>
+        <v>293.2390346673591</v>
       </c>
       <c r="P13" t="n">
-        <v>293.2390346673593</v>
+        <v>293.2390346673591</v>
       </c>
       <c r="Q13" t="n">
-        <v>293.2390346673593</v>
+        <v>293.2390346673591</v>
       </c>
       <c r="R13" t="n">
-        <v>293.2390346673593</v>
+        <v>293.2390346673591</v>
       </c>
       <c r="S13" t="n">
-        <v>277.6847951033693</v>
+        <v>277.6847951033691</v>
       </c>
       <c r="T13" t="n">
-        <v>255.3467286554539</v>
+        <v>255.3467286554537</v>
       </c>
       <c r="U13" t="n">
-        <v>173.1428762987258</v>
+        <v>173.1428762987256</v>
       </c>
       <c r="V13" t="n">
-        <v>125.4540034579034</v>
+        <v>125.4540034579033</v>
       </c>
       <c r="W13" t="n">
-        <v>43.03244878600738</v>
+        <v>43.03244878600732</v>
       </c>
       <c r="X13" t="n">
-        <v>22.03851325305461</v>
+        <v>22.03851325305458</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>157.1068221142298</v>
+        <v>140.8415523165935</v>
       </c>
       <c r="C14" t="n">
-        <v>157.1068221142298</v>
+        <v>112.3015175880876</v>
       </c>
       <c r="D14" t="n">
         <v>112.3015175880876</v>
@@ -5270,58 +5270,58 @@
         <v>112.3015175880876</v>
       </c>
       <c r="H14" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="I14" t="n">
-        <v>8.241549474589084</v>
+        <v>20.77378125016701</v>
       </c>
       <c r="J14" t="n">
-        <v>71.56905565480484</v>
+        <v>20.77378125016701</v>
       </c>
       <c r="K14" t="n">
-        <v>108.8216354878929</v>
+        <v>20.77378125016701</v>
       </c>
       <c r="L14" t="n">
-        <v>152.0792999586483</v>
+        <v>122.7629559982069</v>
       </c>
       <c r="M14" t="n">
-        <v>209.018538593565</v>
+        <v>122.7629559982069</v>
       </c>
       <c r="N14" t="n">
-        <v>209.018538593565</v>
+        <v>224.7521307462468</v>
       </c>
       <c r="O14" t="n">
-        <v>262.8822246664876</v>
+        <v>278.6158168191695</v>
       </c>
       <c r="P14" t="n">
-        <v>364.8713994145275</v>
+        <v>319.8123125382223</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.4756168140136</v>
+        <v>321.5970706825968</v>
       </c>
       <c r="R14" t="n">
-        <v>405.4756168140136</v>
+        <v>405.4756168140134</v>
       </c>
       <c r="S14" t="n">
         <v>412.0774737294541</v>
       </c>
       <c r="T14" t="n">
-        <v>412.0774737294541</v>
+        <v>395.8122039318178</v>
       </c>
       <c r="U14" t="n">
-        <v>365.2267583412269</v>
+        <v>348.9614885435906</v>
       </c>
       <c r="V14" t="n">
-        <v>261.1667902277283</v>
+        <v>244.901520430092</v>
       </c>
       <c r="W14" t="n">
-        <v>157.1068221142298</v>
+        <v>244.901520430092</v>
       </c>
       <c r="X14" t="n">
-        <v>157.1068221142298</v>
+        <v>244.901520430092</v>
       </c>
       <c r="Y14" t="n">
-        <v>157.1068221142298</v>
+        <v>140.8415523165935</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="C15" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="D15" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="E15" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="F15" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="G15" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="H15" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="I15" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="J15" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="K15" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="L15" t="n">
-        <v>106.4715610795652</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="M15" t="n">
-        <v>106.4715610795652</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="N15" t="n">
-        <v>106.4715610795652</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="O15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="P15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="R15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="S15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="T15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="U15" t="n">
-        <v>85.26035194476198</v>
+        <v>85.26035194476175</v>
       </c>
       <c r="V15" t="n">
-        <v>57.10385907808381</v>
+        <v>57.10385907808364</v>
       </c>
       <c r="W15" t="n">
-        <v>9.862117714946722</v>
+        <v>9.862117714946605</v>
       </c>
       <c r="X15" t="n">
-        <v>9.006232874478451</v>
+        <v>9.006232874478391</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="C16" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="D16" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="E16" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="F16" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="G16" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="H16" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="I16" t="n">
-        <v>8.241549474589084</v>
+        <v>63.52964808597331</v>
       </c>
       <c r="J16" t="n">
-        <v>8.241549474589084</v>
+        <v>63.52964808597331</v>
       </c>
       <c r="K16" t="n">
-        <v>107.7636214426332</v>
+        <v>163.0517200540175</v>
       </c>
       <c r="L16" t="n">
-        <v>208.2878621811512</v>
+        <v>256.4520989198105</v>
       </c>
       <c r="M16" t="n">
-        <v>216.5792369784553</v>
+        <v>256.4520989198105</v>
       </c>
       <c r="N16" t="n">
-        <v>216.5792369784553</v>
+        <v>256.4520989198105</v>
       </c>
       <c r="O16" t="n">
-        <v>270.5653073292706</v>
+        <v>256.4520989198105</v>
       </c>
       <c r="P16" t="n">
-        <v>293.2390346673595</v>
+        <v>256.4520989198105</v>
       </c>
       <c r="Q16" t="n">
-        <v>293.2390346673595</v>
+        <v>256.4520989198105</v>
       </c>
       <c r="R16" t="n">
-        <v>293.2390346673595</v>
+        <v>293.2390346673591</v>
       </c>
       <c r="S16" t="n">
-        <v>277.6847951033694</v>
+        <v>277.6847951033691</v>
       </c>
       <c r="T16" t="n">
-        <v>255.346728655454</v>
+        <v>255.3467286554537</v>
       </c>
       <c r="U16" t="n">
-        <v>173.1428762987259</v>
+        <v>173.1428762987256</v>
       </c>
       <c r="V16" t="n">
-        <v>125.4540034579035</v>
+        <v>125.4540034579033</v>
       </c>
       <c r="W16" t="n">
-        <v>43.03244878600744</v>
+        <v>43.03244878600732</v>
       </c>
       <c r="X16" t="n">
-        <v>22.03851325305465</v>
+        <v>22.03851325305458</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>261.1752924896077</v>
+        <v>261.1752924896076</v>
       </c>
       <c r="C17" t="n">
-        <v>230.2306266320165</v>
+        <v>230.2306266320162</v>
       </c>
       <c r="D17" t="n">
-        <v>209.9827791080863</v>
+        <v>209.982779108086</v>
       </c>
       <c r="E17" t="n">
-        <v>162.2123775926623</v>
+        <v>162.2123775926621</v>
       </c>
       <c r="F17" t="n">
-        <v>89.24432388587526</v>
+        <v>89.24432388587518</v>
       </c>
       <c r="G17" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="H17" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="I17" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="J17" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="K17" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="L17" t="n">
         <v>110.230724222629</v>
       </c>
       <c r="M17" t="n">
-        <v>110.230724222629</v>
+        <v>212.2198989706689</v>
       </c>
       <c r="N17" t="n">
-        <v>110.230724222629</v>
+        <v>212.2198989706689</v>
       </c>
       <c r="O17" t="n">
-        <v>110.230724222629</v>
+        <v>212.2198989706689</v>
       </c>
       <c r="P17" t="n">
-        <v>208.0991242333744</v>
+        <v>314.2090737187087</v>
       </c>
       <c r="Q17" t="n">
-        <v>310.0882989814143</v>
+        <v>405.2609137686155</v>
       </c>
       <c r="R17" t="n">
-        <v>310.0882989814143</v>
+        <v>405.2609137686155</v>
       </c>
       <c r="S17" t="n">
-        <v>310.0882989814143</v>
+        <v>405.2609137686155</v>
       </c>
       <c r="T17" t="n">
-        <v>412.0774737294541</v>
+        <v>405.2609137686155</v>
       </c>
       <c r="U17" t="n">
-        <v>412.0774737294541</v>
+        <v>405.2609137686155</v>
       </c>
       <c r="V17" t="n">
         <v>412.0774737294541</v>
       </c>
       <c r="W17" t="n">
-        <v>397.3266695421603</v>
+        <v>397.3266695421602</v>
       </c>
       <c r="X17" t="n">
-        <v>361.8787623639007</v>
+        <v>361.8787623639006</v>
       </c>
       <c r="Y17" t="n">
-        <v>309.7572814709092</v>
+        <v>309.757281470909</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="C18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="D18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="E18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="F18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="G18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="H18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="I18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="J18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="K18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="L18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="M18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="N18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="O18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="P18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="R18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="S18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="T18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="U18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="V18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="W18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="X18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="C19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="D19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="E19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="F19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="G19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="H19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="I19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="J19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="K19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="L19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="M19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="N19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="O19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="P19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="R19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="S19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="T19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="U19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="V19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="W19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="X19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
     </row>
     <row r="20">
@@ -5726,64 +5726,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>261.175292489608</v>
+        <v>261.1752924896078</v>
       </c>
       <c r="C20" t="n">
-        <v>230.2306266320165</v>
+        <v>230.2306266320164</v>
       </c>
       <c r="D20" t="n">
         <v>209.9827791080863</v>
       </c>
       <c r="E20" t="n">
-        <v>162.2123775926624</v>
+        <v>162.2123775926625</v>
       </c>
       <c r="F20" t="n">
         <v>89.2443238858752</v>
       </c>
       <c r="G20" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="H20" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="I20" t="n">
         <v>110.230724222629</v>
       </c>
       <c r="J20" t="n">
-        <v>118.7860571975649</v>
+        <v>110.230724222629</v>
       </c>
       <c r="K20" t="n">
-        <v>118.7860571975649</v>
+        <v>110.230724222629</v>
       </c>
       <c r="L20" t="n">
-        <v>118.7860571975649</v>
+        <v>110.230724222629</v>
       </c>
       <c r="M20" t="n">
-        <v>118.7860571975649</v>
+        <v>110.230724222629</v>
       </c>
       <c r="N20" t="n">
-        <v>118.7860571975649</v>
+        <v>110.230724222629</v>
       </c>
       <c r="O20" t="n">
-        <v>220.7752319456048</v>
+        <v>110.230724222629</v>
       </c>
       <c r="P20" t="n">
-        <v>220.7752319456048</v>
+        <v>212.2198989706689</v>
       </c>
       <c r="Q20" t="n">
-        <v>220.7752319456048</v>
+        <v>310.0882989814142</v>
       </c>
       <c r="R20" t="n">
-        <v>220.7752319456048</v>
+        <v>412.0774737294541</v>
       </c>
       <c r="S20" t="n">
-        <v>220.7752319456048</v>
+        <v>412.0774737294541</v>
       </c>
       <c r="T20" t="n">
-        <v>322.7644066936447</v>
+        <v>412.0774737294541</v>
       </c>
       <c r="U20" t="n">
-        <v>405.2609137686155</v>
+        <v>412.0774737294541</v>
       </c>
       <c r="V20" t="n">
         <v>412.0774737294541</v>
@@ -5792,10 +5792,10 @@
         <v>397.3266695421603</v>
       </c>
       <c r="X20" t="n">
-        <v>361.8787623639008</v>
+        <v>361.8787623639009</v>
       </c>
       <c r="Y20" t="n">
-        <v>309.7572814709094</v>
+        <v>309.7572814709093</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="C21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="D21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="E21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="F21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="G21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="H21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="I21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="J21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="K21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="L21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="M21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="N21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="O21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="P21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="R21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="S21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="T21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="U21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="V21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="W21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="X21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="C22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="D22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="E22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="F22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="G22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="H22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="I22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="J22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="K22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="L22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="M22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="N22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="O22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="P22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="R22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="S22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="T22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="U22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="V22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="W22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="X22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.241549474589084</v>
+        <v>8.241549474589082</v>
       </c>
     </row>
     <row r="23">
@@ -5978,52 +5978,52 @@
         <v>89.2443238858752</v>
       </c>
       <c r="G23" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="H23" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="I23" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="J23" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="K23" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="L23" t="n">
-        <v>106.1099494853345</v>
+        <v>23.61344241036355</v>
       </c>
       <c r="M23" t="n">
-        <v>106.1099494853345</v>
+        <v>125.6026171584034</v>
       </c>
       <c r="N23" t="n">
-        <v>208.0991242333744</v>
+        <v>125.6026171584034</v>
       </c>
       <c r="O23" t="n">
-        <v>310.0882989814143</v>
+        <v>125.6026171584034</v>
       </c>
       <c r="P23" t="n">
-        <v>310.0882989814143</v>
+        <v>125.6026171584034</v>
       </c>
       <c r="Q23" t="n">
-        <v>310.0882989814143</v>
+        <v>125.6026171584034</v>
       </c>
       <c r="R23" t="n">
-        <v>310.0882989814143</v>
+        <v>227.5917919064433</v>
       </c>
       <c r="S23" t="n">
-        <v>412.0774737294541</v>
+        <v>329.5809666544832</v>
       </c>
       <c r="T23" t="n">
-        <v>412.0774737294541</v>
+        <v>329.5809666544832</v>
       </c>
       <c r="U23" t="n">
-        <v>412.0774737294541</v>
+        <v>412.077473729454</v>
       </c>
       <c r="V23" t="n">
-        <v>412.0774737294541</v>
+        <v>412.077473729454</v>
       </c>
       <c r="W23" t="n">
         <v>397.3266695421604</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="C24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="D24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="E24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="F24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="G24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="H24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="I24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="J24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="K24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="L24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="M24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="N24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="O24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="P24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="R24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="S24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="T24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="U24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="V24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="W24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="X24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="C25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="D25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="E25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="F25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="G25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="H25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="I25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="J25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="K25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="L25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="M25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="N25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="O25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="P25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="R25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="S25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="T25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="U25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="V25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="W25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="X25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.241549474589084</v>
+        <v>8.24154947458908</v>
       </c>
     </row>
     <row r="26">
@@ -6203,67 +6203,67 @@
         <v>1158.103997834313</v>
       </c>
       <c r="C26" t="n">
-        <v>983.350409415197</v>
+        <v>983.3504094151971</v>
       </c>
       <c r="D26" t="n">
         <v>819.2936393297423</v>
       </c>
       <c r="E26" t="n">
-        <v>627.714315252794</v>
+        <v>627.7143152527937</v>
       </c>
       <c r="F26" t="n">
-        <v>410.9373389844821</v>
+        <v>410.9373389844818</v>
       </c>
       <c r="G26" t="n">
-        <v>186.1256420116717</v>
+        <v>186.1256420116716</v>
       </c>
       <c r="H26" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I26" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J26" t="n">
-        <v>42.31671945014703</v>
+        <v>260.5176428751379</v>
       </c>
       <c r="K26" t="n">
-        <v>74.25178709725444</v>
+        <v>613.3566689676984</v>
       </c>
       <c r="L26" t="n">
-        <v>518.4618221973778</v>
+        <v>644.0821016628759</v>
       </c>
       <c r="M26" t="n">
-        <v>1007.887227214621</v>
+        <v>949.028138294881</v>
       </c>
       <c r="N26" t="n">
-        <v>1487.520081734782</v>
+        <v>1428.660992815042</v>
       </c>
       <c r="O26" t="n">
-        <v>1727.986770074623</v>
+        <v>1656.640455718783</v>
       </c>
       <c r="P26" t="n">
-        <v>1884.887584264143</v>
+        <v>1813.541269908304</v>
       </c>
       <c r="Q26" t="n">
-        <v>2115.835972507351</v>
+        <v>2044.489658151512</v>
       </c>
       <c r="R26" t="n">
         <v>2115.835972507351</v>
       </c>
       <c r="S26" t="n">
-        <v>2109.785187015936</v>
+        <v>2109.785187015934</v>
       </c>
       <c r="T26" t="n">
-        <v>2080.733230374531</v>
+        <v>2080.733230374529</v>
       </c>
       <c r="U26" t="n">
-        <v>2021.095828142534</v>
+        <v>2021.095828142533</v>
       </c>
       <c r="V26" t="n">
         <v>1884.241869320258</v>
       </c>
       <c r="W26" t="n">
-        <v>1725.68214257144</v>
+        <v>1725.682142571439</v>
       </c>
       <c r="X26" t="n">
         <v>1546.425312831655</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="C27" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="D27" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="E27" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="F27" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="G27" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="H27" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I27" t="n">
-        <v>142.7475745992705</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J27" t="n">
-        <v>142.7475745992705</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="K27" t="n">
-        <v>211.4289334685722</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="L27" t="n">
-        <v>211.4289334685722</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="M27" t="n">
-        <v>211.4289334685722</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="N27" t="n">
-        <v>211.4289334685722</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="O27" t="n">
-        <v>211.4289334685722</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="P27" t="n">
-        <v>211.4289334685722</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="Q27" t="n">
-        <v>211.4289334685722</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="R27" t="n">
-        <v>211.4289334685722</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="S27" t="n">
-        <v>211.4289334685722</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="T27" t="n">
-        <v>204.4801652739677</v>
+        <v>204.4801652739674</v>
       </c>
       <c r="U27" t="n">
-        <v>170.4822692953956</v>
+        <v>170.4822692953954</v>
       </c>
       <c r="V27" t="n">
-        <v>129.5390895849485</v>
+        <v>129.5390895849483</v>
       </c>
       <c r="W27" t="n">
-        <v>69.5106613780425</v>
+        <v>69.51066137804237</v>
       </c>
       <c r="X27" t="n">
-        <v>55.86808969380532</v>
+        <v>55.86808969380524</v>
       </c>
       <c r="Y27" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.62722991375094</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="C28" t="n">
-        <v>79.39704786983123</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="D28" t="n">
-        <v>79.39704786983123</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="E28" t="n">
-        <v>124.7715956934496</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="F28" t="n">
-        <v>124.7715956934496</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="G28" t="n">
-        <v>124.7715956934496</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="H28" t="n">
-        <v>156.3757078087145</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I28" t="n">
-        <v>156.3757078087145</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J28" t="n">
-        <v>156.3757078087145</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="K28" t="n">
-        <v>156.3757078087145</v>
+        <v>129.3065596426133</v>
       </c>
       <c r="L28" t="n">
-        <v>156.3757078087145</v>
+        <v>129.3065596426133</v>
       </c>
       <c r="M28" t="n">
-        <v>228.4425512520005</v>
+        <v>283.4735416975741</v>
       </c>
       <c r="N28" t="n">
-        <v>247.4770598020219</v>
+        <v>283.4735416975741</v>
       </c>
       <c r="O28" t="n">
-        <v>247.4770598020219</v>
+        <v>337.4596120483894</v>
       </c>
       <c r="P28" t="n">
-        <v>416.8210125492998</v>
+        <v>416.8210125492994</v>
       </c>
       <c r="Q28" t="n">
-        <v>416.8210125492998</v>
+        <v>416.8210125492994</v>
       </c>
       <c r="R28" t="n">
-        <v>416.8210125492998</v>
+        <v>416.8210125492994</v>
       </c>
       <c r="S28" t="n">
-        <v>388.4800861415408</v>
+        <v>388.4800861415405</v>
       </c>
       <c r="T28" t="n">
-        <v>353.3553328498565</v>
+        <v>353.3553328498563</v>
       </c>
       <c r="U28" t="n">
-        <v>258.3647936493595</v>
+        <v>258.3647936493592</v>
       </c>
       <c r="V28" t="n">
-        <v>197.8892339647682</v>
+        <v>197.889233964768</v>
       </c>
       <c r="W28" t="n">
-        <v>102.6809924491032</v>
+        <v>102.6809924491031</v>
       </c>
       <c r="X28" t="n">
-        <v>68.90037007238151</v>
+        <v>68.90037007238143</v>
       </c>
       <c r="Y28" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1158.103997834314</v>
+        <v>1158.103997834313</v>
       </c>
       <c r="C29" t="n">
-        <v>983.350409415198</v>
+        <v>983.3504094151973</v>
       </c>
       <c r="D29" t="n">
-        <v>819.2936393297432</v>
+        <v>819.2936393297425</v>
       </c>
       <c r="E29" t="n">
-        <v>627.7143152527949</v>
+        <v>627.714315252794</v>
       </c>
       <c r="F29" t="n">
-        <v>410.9373389844829</v>
+        <v>410.9373389844822</v>
       </c>
       <c r="G29" t="n">
         <v>186.1256420116716</v>
       </c>
       <c r="H29" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I29" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J29" t="n">
-        <v>223.5759931337424</v>
+        <v>79.94598527799724</v>
       </c>
       <c r="K29" t="n">
-        <v>403.2419006102444</v>
+        <v>432.7850113705579</v>
       </c>
       <c r="L29" t="n">
-        <v>847.4519357103678</v>
+        <v>616.5035474671586</v>
       </c>
       <c r="M29" t="n">
-        <v>1336.877340727611</v>
+        <v>1105.928952484402</v>
       </c>
       <c r="N29" t="n">
-        <v>1816.510195247772</v>
+        <v>1395.217636160841</v>
       </c>
       <c r="O29" t="n">
-        <v>2044.489658151513</v>
+        <v>1813.541269908304</v>
       </c>
       <c r="P29" t="n">
-        <v>2044.489658151513</v>
+        <v>1813.541269908304</v>
       </c>
       <c r="Q29" t="n">
-        <v>2044.489658151513</v>
+        <v>2044.489658151512</v>
       </c>
       <c r="R29" t="n">
         <v>2115.835972507351</v>
       </c>
       <c r="S29" t="n">
-        <v>2109.785187015935</v>
+        <v>2109.785187015934</v>
       </c>
       <c r="T29" t="n">
-        <v>2080.73323037453</v>
+        <v>2080.733230374529</v>
       </c>
       <c r="U29" t="n">
-        <v>2021.095828142534</v>
+        <v>2021.095828142533</v>
       </c>
       <c r="V29" t="n">
-        <v>1884.241869320259</v>
+        <v>1884.241869320258</v>
       </c>
       <c r="W29" t="n">
-        <v>1725.68214257144</v>
+        <v>1725.682142571439</v>
       </c>
       <c r="X29" t="n">
-        <v>1546.425312831656</v>
+        <v>1546.425312831655</v>
       </c>
       <c r="Y29" t="n">
-        <v>1350.49490937714</v>
+        <v>1350.494909377139</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="C30" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="D30" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="E30" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="F30" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="G30" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="H30" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I30" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J30" t="n">
-        <v>130.7286766234048</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="K30" t="n">
-        <v>130.7286766234048</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="L30" t="n">
-        <v>211.4289334685719</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="M30" t="n">
-        <v>211.4289334685719</v>
+        <v>155.3394790036891</v>
       </c>
       <c r="N30" t="n">
-        <v>211.4289334685719</v>
+        <v>155.3394790036891</v>
       </c>
       <c r="O30" t="n">
-        <v>211.4289334685719</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="P30" t="n">
-        <v>211.4289334685719</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="Q30" t="n">
-        <v>211.4289334685719</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="R30" t="n">
-        <v>211.4289334685719</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="S30" t="n">
-        <v>211.4289334685719</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="T30" t="n">
-        <v>204.4801652739674</v>
+        <v>204.4801652739673</v>
       </c>
       <c r="U30" t="n">
-        <v>170.4822692953954</v>
+        <v>170.4822692953952</v>
       </c>
       <c r="V30" t="n">
-        <v>129.5390895849483</v>
+        <v>129.5390895849482</v>
       </c>
       <c r="W30" t="n">
-        <v>69.51066137804239</v>
+        <v>69.51066137804231</v>
       </c>
       <c r="X30" t="n">
-        <v>55.86808969380526</v>
+        <v>55.86808969380521</v>
       </c>
       <c r="Y30" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="C31" t="n">
-        <v>67.08653740622736</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="D31" t="n">
-        <v>110.301389961919</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="E31" t="n">
-        <v>110.301389961919</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="F31" t="n">
-        <v>156.678723262939</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="G31" t="n">
-        <v>180.9215716030648</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="H31" t="n">
-        <v>212.5256837183298</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I31" t="n">
-        <v>212.5256837183298</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J31" t="n">
-        <v>291.973504569406</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="K31" t="n">
-        <v>378.9633447618723</v>
+        <v>129.3065596426133</v>
       </c>
       <c r="L31" t="n">
-        <v>378.9633447618723</v>
+        <v>129.3065596426133</v>
       </c>
       <c r="M31" t="n">
-        <v>378.9633447618723</v>
+        <v>129.3065596426133</v>
       </c>
       <c r="N31" t="n">
-        <v>378.9633447618723</v>
+        <v>172.490771354762</v>
       </c>
       <c r="O31" t="n">
-        <v>392.5663085773288</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="P31" t="n">
-        <v>392.5663085773288</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="Q31" t="n">
-        <v>392.5663085773288</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="R31" t="n">
-        <v>416.8210125492994</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="S31" t="n">
-        <v>388.4800861415405</v>
+        <v>388.4800861415404</v>
       </c>
       <c r="T31" t="n">
-        <v>353.3553328498563</v>
+        <v>353.3553328498561</v>
       </c>
       <c r="U31" t="n">
-        <v>258.3647936493592</v>
+        <v>258.3647936493591</v>
       </c>
       <c r="V31" t="n">
-        <v>197.889233964768</v>
+        <v>197.8892339647679</v>
       </c>
       <c r="W31" t="n">
-        <v>102.6809924491031</v>
+        <v>102.680992449103</v>
       </c>
       <c r="X31" t="n">
-        <v>68.90037007238145</v>
+        <v>68.90037007238141</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1158.103997834312</v>
+        <v>1158.103997834313</v>
       </c>
       <c r="C32" t="n">
-        <v>983.3504094151963</v>
+        <v>983.3504094151966</v>
       </c>
       <c r="D32" t="n">
-        <v>819.2936393297414</v>
+        <v>819.2936393297418</v>
       </c>
       <c r="E32" t="n">
-        <v>627.7143152527929</v>
+        <v>627.7143152527935</v>
       </c>
       <c r="F32" t="n">
-        <v>410.9373389844809</v>
+        <v>410.9373389844818</v>
       </c>
       <c r="G32" t="n">
         <v>186.1256420116716</v>
       </c>
       <c r="H32" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I32" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J32" t="n">
-        <v>70.17347203141607</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="K32" t="n">
-        <v>423.0124981239766</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="L32" t="n">
-        <v>862.5568259609045</v>
+        <v>486.5267545502705</v>
       </c>
       <c r="M32" t="n">
-        <v>1351.982230978148</v>
+        <v>975.9521595675135</v>
       </c>
       <c r="N32" t="n">
-        <v>1641.270914654587</v>
+        <v>1265.240843243953</v>
       </c>
       <c r="O32" t="n">
-        <v>2059.594548402049</v>
+        <v>1683.564476991416</v>
       </c>
       <c r="P32" t="n">
-        <v>2075.231755107865</v>
+        <v>1884.887584264143</v>
       </c>
       <c r="Q32" t="n">
         <v>2115.835972507351</v>
@@ -6728,13 +6728,13 @@
         <v>2109.785187015934</v>
       </c>
       <c r="T32" t="n">
-        <v>2080.733230374528</v>
+        <v>2080.733230374529</v>
       </c>
       <c r="U32" t="n">
-        <v>2021.095828142532</v>
+        <v>2021.095828142533</v>
       </c>
       <c r="V32" t="n">
-        <v>1884.241869320257</v>
+        <v>1884.241869320258</v>
       </c>
       <c r="W32" t="n">
         <v>1725.682142571439</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="C33" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="D33" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="E33" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="F33" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="G33" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="H33" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I33" t="n">
-        <v>142.7475745992705</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J33" t="n">
-        <v>142.7475745992705</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="K33" t="n">
-        <v>142.7475745992705</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="L33" t="n">
-        <v>142.7475745992705</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="M33" t="n">
-        <v>142.7475745992705</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="N33" t="n">
-        <v>142.7475745992705</v>
+        <v>127.7307681331693</v>
       </c>
       <c r="O33" t="n">
-        <v>142.7475745992705</v>
+        <v>127.7307681331693</v>
       </c>
       <c r="P33" t="n">
-        <v>142.7475745992705</v>
+        <v>127.7307681331693</v>
       </c>
       <c r="Q33" t="n">
-        <v>211.4289334685721</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="R33" t="n">
-        <v>211.4289334685721</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="S33" t="n">
-        <v>211.4289334685721</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="T33" t="n">
-        <v>204.4801652739675</v>
+        <v>204.4801652739674</v>
       </c>
       <c r="U33" t="n">
-        <v>170.4822692953955</v>
+        <v>170.4822692953954</v>
       </c>
       <c r="V33" t="n">
-        <v>129.5390895849484</v>
+        <v>129.5390895849483</v>
       </c>
       <c r="W33" t="n">
-        <v>69.51066137804244</v>
+        <v>69.51066137804237</v>
       </c>
       <c r="X33" t="n">
-        <v>55.86808969380529</v>
+        <v>55.86808969380524</v>
       </c>
       <c r="Y33" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.62722991375097</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="C34" t="n">
-        <v>54.62722991375097</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="D34" t="n">
-        <v>54.62722991375097</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="E34" t="n">
-        <v>54.62722991375097</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="F34" t="n">
-        <v>54.62722991375097</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="G34" t="n">
-        <v>54.62722991375097</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="H34" t="n">
-        <v>54.62722991375097</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I34" t="n">
-        <v>97.38309674955725</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J34" t="n">
-        <v>210.1307965101296</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="K34" t="n">
-        <v>210.1307965101296</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="L34" t="n">
-        <v>298.1228054730697</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="M34" t="n">
-        <v>298.1228054730697</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="N34" t="n">
-        <v>298.1228054730697</v>
+        <v>259.2188377256034</v>
       </c>
       <c r="O34" t="n">
-        <v>336.2296097858048</v>
+        <v>313.2049080764187</v>
       </c>
       <c r="P34" t="n">
-        <v>358.9033371238936</v>
+        <v>392.5663085773288</v>
       </c>
       <c r="Q34" t="n">
-        <v>416.8210125492996</v>
+        <v>392.5663085773288</v>
       </c>
       <c r="R34" t="n">
-        <v>416.8210125492996</v>
+        <v>416.8210125492994</v>
       </c>
       <c r="S34" t="n">
-        <v>388.4800861415407</v>
+        <v>388.4800861415405</v>
       </c>
       <c r="T34" t="n">
-        <v>353.3553328498564</v>
+        <v>353.3553328498563</v>
       </c>
       <c r="U34" t="n">
-        <v>258.3647936493593</v>
+        <v>258.3647936493592</v>
       </c>
       <c r="V34" t="n">
-        <v>197.8892339647681</v>
+        <v>197.889233964768</v>
       </c>
       <c r="W34" t="n">
-        <v>102.6809924491032</v>
+        <v>102.6809924491031</v>
       </c>
       <c r="X34" t="n">
-        <v>68.90037007238148</v>
+        <v>68.90037007238143</v>
       </c>
       <c r="Y34" t="n">
-        <v>42.31671945014703</v>
+        <v>42.31671945014701</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>965.495857298703</v>
       </c>
       <c r="C35" t="n">
-        <v>821.470034056424</v>
+        <v>821.4700340564239</v>
       </c>
       <c r="D35" t="n">
-        <v>688.1410291478061</v>
+        <v>688.141029147806</v>
       </c>
       <c r="E35" t="n">
         <v>527.2894702476945</v>
@@ -6926,46 +6926,46 @@
         <v>341.2402591562195</v>
       </c>
       <c r="G35" t="n">
-        <v>147.1563273602457</v>
+        <v>147.1563273602456</v>
       </c>
       <c r="H35" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="I35" t="n">
-        <v>34.07516997555795</v>
+        <v>64.19145262537586</v>
       </c>
       <c r="J35" t="n">
-        <v>207.5793281591959</v>
+        <v>64.19145262537586</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5346369015743</v>
+        <v>64.19145262537586</v>
       </c>
       <c r="L35" t="n">
-        <v>1012.214865349104</v>
+        <v>485.8716810729052</v>
       </c>
       <c r="M35" t="n">
-        <v>1433.895093796634</v>
+        <v>907.5519095204346</v>
       </c>
       <c r="N35" t="n">
-        <v>1510.670775798748</v>
+        <v>1154.787305589453</v>
       </c>
       <c r="O35" t="n">
-        <v>1582.118512745911</v>
+        <v>1576.467534036982</v>
       </c>
       <c r="P35" t="n">
-        <v>1651.243208692601</v>
+        <v>1576.467534036982</v>
       </c>
       <c r="Q35" t="n">
-        <v>1702.116038832321</v>
+        <v>1576.467534036982</v>
       </c>
       <c r="R35" t="n">
-        <v>1702.116038832321</v>
+        <v>1677.930131042639</v>
       </c>
       <c r="S35" t="n">
-        <v>1702.116038832321</v>
+        <v>1702.11603883232</v>
       </c>
       <c r="T35" t="n">
-        <v>1703.758498777897</v>
+        <v>1703.758498777896</v>
       </c>
       <c r="U35" t="n">
         <v>1674.848861722738</v>
@@ -6974,7 +6974,7 @@
         <v>1568.7226680773</v>
       </c>
       <c r="W35" t="n">
-        <v>1440.890706505319</v>
+        <v>1440.890706505318</v>
       </c>
       <c r="X35" t="n">
         <v>1292.361641942371</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="C36" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="D36" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="E36" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="F36" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="G36" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="H36" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="I36" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="J36" t="n">
-        <v>76.86137834097219</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="K36" t="n">
-        <v>76.86137834097219</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="L36" t="n">
-        <v>76.86137834097219</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="M36" t="n">
-        <v>76.86137834097219</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="N36" t="n">
-        <v>76.86137834097219</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="O36" t="n">
-        <v>76.86137834097219</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="P36" t="n">
-        <v>76.86137834097219</v>
+        <v>76.86137834097201</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.86137834097219</v>
+        <v>76.86137834097201</v>
       </c>
       <c r="R36" t="n">
-        <v>76.86137834097219</v>
+        <v>76.86137834097201</v>
       </c>
       <c r="S36" t="n">
-        <v>76.86137834097219</v>
+        <v>76.86137834097201</v>
       </c>
       <c r="T36" t="n">
-        <v>76.86137834097219</v>
+        <v>76.86137834097201</v>
       </c>
       <c r="U36" t="n">
-        <v>73.59124753923707</v>
+        <v>73.59124753923695</v>
       </c>
       <c r="V36" t="n">
-        <v>63.37583300562697</v>
+        <v>63.3758330056269</v>
       </c>
       <c r="W36" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="X36" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="Y36" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>38.13681665052386</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="C37" t="n">
-        <v>93.02291725642206</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="D37" t="n">
-        <v>93.02291725642206</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="E37" t="n">
-        <v>93.02291725642206</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="F37" t="n">
-        <v>93.02291725642206</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="G37" t="n">
-        <v>93.02291725642206</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="H37" t="n">
-        <v>93.02291725642206</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="I37" t="n">
-        <v>93.02291725642206</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="J37" t="n">
-        <v>93.02291725642206</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="K37" t="n">
-        <v>93.02291725642206</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="L37" t="n">
-        <v>197.6767194829591</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="M37" t="n">
-        <v>197.6767194829591</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="N37" t="n">
-        <v>197.6767194829591</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="O37" t="n">
-        <v>197.6767194829591</v>
+        <v>111.9821020853082</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6767194829591</v>
+        <v>111.9821020853082</v>
       </c>
       <c r="Q37" t="n">
-        <v>197.6767194829591</v>
+        <v>200.0160601605321</v>
       </c>
       <c r="R37" t="n">
-        <v>197.6767194829591</v>
+        <v>200.0160601605321</v>
       </c>
       <c r="S37" t="n">
-        <v>200.0160601605324</v>
+        <v>200.0160601605321</v>
       </c>
       <c r="T37" t="n">
-        <v>195.6190720456851</v>
+        <v>195.6190720456848</v>
       </c>
       <c r="U37" t="n">
-        <v>131.356298022025</v>
+        <v>131.3562980220248</v>
       </c>
       <c r="V37" t="n">
-        <v>101.6085035142707</v>
+        <v>101.6085035142706</v>
       </c>
       <c r="W37" t="n">
-        <v>37.12802717544268</v>
+        <v>37.1280271754426</v>
       </c>
       <c r="X37" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.13681665052386</v>
+        <v>34.07516997555793</v>
       </c>
     </row>
     <row r="38">
@@ -7148,70 +7148,70 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.4958572987033</v>
+        <v>965.4958572987025</v>
       </c>
       <c r="C38" t="n">
-        <v>821.4700340564244</v>
+        <v>821.4700340564236</v>
       </c>
       <c r="D38" t="n">
-        <v>688.1410291478066</v>
+        <v>688.141029147806</v>
       </c>
       <c r="E38" t="n">
-        <v>527.2894702476951</v>
+        <v>527.2894702476945</v>
       </c>
       <c r="F38" t="n">
-        <v>341.2402591562202</v>
+        <v>341.2402591562196</v>
       </c>
       <c r="G38" t="n">
         <v>147.1563273602456</v>
       </c>
       <c r="H38" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="I38" t="n">
-        <v>64.19145262537592</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="J38" t="n">
-        <v>161.4857586453702</v>
+        <v>114.9867270300138</v>
       </c>
       <c r="K38" t="n">
-        <v>324.9189541723619</v>
+        <v>497.9420357723922</v>
       </c>
       <c r="L38" t="n">
-        <v>385.7606695173574</v>
+        <v>652.0299182575153</v>
       </c>
       <c r="M38" t="n">
-        <v>807.440897964887</v>
+        <v>726.5532077666721</v>
       </c>
       <c r="N38" t="n">
-        <v>1229.121126412417</v>
+        <v>726.5532077666721</v>
       </c>
       <c r="O38" t="n">
-        <v>1300.568863359579</v>
+        <v>1148.233436214201</v>
       </c>
       <c r="P38" t="n">
-        <v>1677.93013104264</v>
+        <v>1525.594703897262</v>
       </c>
       <c r="Q38" t="n">
-        <v>1677.93013104264</v>
+        <v>1576.467534036982</v>
       </c>
       <c r="R38" t="n">
-        <v>1677.93013104264</v>
+        <v>1677.930131042639</v>
       </c>
       <c r="S38" t="n">
-        <v>1702.116038832321</v>
+        <v>1702.11603883232</v>
       </c>
       <c r="T38" t="n">
-        <v>1703.758498777897</v>
+        <v>1703.758498777896</v>
       </c>
       <c r="U38" t="n">
-        <v>1674.848861722738</v>
+        <v>1674.848861722737</v>
       </c>
       <c r="V38" t="n">
-        <v>1568.7226680773</v>
+        <v>1568.722668077299</v>
       </c>
       <c r="W38" t="n">
-        <v>1440.890706505319</v>
+        <v>1440.890706505318</v>
       </c>
       <c r="X38" t="n">
         <v>1292.361641942371</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="C39" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="D39" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="E39" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="F39" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="G39" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="H39" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="I39" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="J39" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="K39" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="L39" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="M39" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="N39" t="n">
-        <v>34.07516997555795</v>
+        <v>53.55558339868595</v>
       </c>
       <c r="O39" t="n">
-        <v>76.86137834097194</v>
+        <v>53.55558339868595</v>
       </c>
       <c r="P39" t="n">
-        <v>76.86137834097194</v>
+        <v>53.55558339868595</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.86137834097194</v>
+        <v>53.55558339868595</v>
       </c>
       <c r="R39" t="n">
-        <v>76.86137834097194</v>
+        <v>53.55558339868595</v>
       </c>
       <c r="S39" t="n">
-        <v>76.86137834097194</v>
+        <v>53.55558339868595</v>
       </c>
       <c r="T39" t="n">
-        <v>76.86137834097194</v>
+        <v>76.86137834097201</v>
       </c>
       <c r="U39" t="n">
-        <v>73.5912475392369</v>
+        <v>73.59124753923695</v>
       </c>
       <c r="V39" t="n">
-        <v>63.37583300562689</v>
+        <v>63.3758330056269</v>
       </c>
       <c r="W39" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="X39" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="Y39" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>38.13681665052395</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="C40" t="n">
-        <v>38.13681665052395</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="D40" t="n">
-        <v>38.13681665052395</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="E40" t="n">
-        <v>38.13681665052395</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="F40" t="n">
-        <v>38.13681665052395</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="G40" t="n">
-        <v>38.13681665052395</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="H40" t="n">
-        <v>38.13681665052395</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="I40" t="n">
-        <v>38.13681665052395</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="J40" t="n">
-        <v>38.13681665052395</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="K40" t="n">
-        <v>38.13681665052395</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="L40" t="n">
-        <v>38.13681665052395</v>
+        <v>152.183461588316</v>
       </c>
       <c r="M40" t="n">
-        <v>38.13681665052395</v>
+        <v>152.183461588316</v>
       </c>
       <c r="N40" t="n">
-        <v>38.13681665052395</v>
+        <v>152.183461588316</v>
       </c>
       <c r="O40" t="n">
-        <v>57.61111546351935</v>
+        <v>152.183461588316</v>
       </c>
       <c r="P40" t="n">
-        <v>57.61111546351935</v>
+        <v>152.183461588316</v>
       </c>
       <c r="Q40" t="n">
-        <v>145.6450735387433</v>
+        <v>197.6767194829587</v>
       </c>
       <c r="R40" t="n">
-        <v>200.0160601605319</v>
+        <v>197.6767194829587</v>
       </c>
       <c r="S40" t="n">
-        <v>200.0160601605319</v>
+        <v>200.0160601605321</v>
       </c>
       <c r="T40" t="n">
-        <v>195.6190720456847</v>
+        <v>195.6190720456848</v>
       </c>
       <c r="U40" t="n">
-        <v>131.3562980220247</v>
+        <v>131.3562980220248</v>
       </c>
       <c r="V40" t="n">
-        <v>101.6085035142705</v>
+        <v>101.6085035142706</v>
       </c>
       <c r="W40" t="n">
         <v>37.1280271754426</v>
       </c>
       <c r="X40" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="Y40" t="n">
-        <v>38.13681665052395</v>
+        <v>34.07516997555793</v>
       </c>
     </row>
     <row r="41">
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>965.4958572987032</v>
+        <v>965.4958572987025</v>
       </c>
       <c r="C41" t="n">
-        <v>821.4700340564241</v>
+        <v>821.4700340564235</v>
       </c>
       <c r="D41" t="n">
-        <v>688.1410291478064</v>
+        <v>688.1410291478057</v>
       </c>
       <c r="E41" t="n">
-        <v>527.2894702476951</v>
+        <v>527.2894702476942</v>
       </c>
       <c r="F41" t="n">
-        <v>341.2402591562205</v>
+        <v>341.2402591562193</v>
       </c>
       <c r="G41" t="n">
-        <v>147.1563273602456</v>
+        <v>147.1563273602455</v>
       </c>
       <c r="H41" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="I41" t="n">
-        <v>34.07516997555795</v>
+        <v>64.19145262537589</v>
       </c>
       <c r="J41" t="n">
-        <v>114.9867270300138</v>
+        <v>312.5086587001848</v>
       </c>
       <c r="K41" t="n">
-        <v>277.4815822788524</v>
+        <v>374.5600089971102</v>
       </c>
       <c r="L41" t="n">
-        <v>319.348017720931</v>
+        <v>796.2402374446397</v>
       </c>
       <c r="M41" t="n">
-        <v>741.0282461684606</v>
+        <v>870.7635269537965</v>
       </c>
       <c r="N41" t="n">
-        <v>1162.70847461599</v>
+        <v>1292.443755401326</v>
       </c>
       <c r="O41" t="n">
-        <v>1584.38870306352</v>
+        <v>1477.082770044203</v>
       </c>
       <c r="P41" t="n">
-        <v>1643.169249656813</v>
+        <v>1535.863316637496</v>
       </c>
       <c r="Q41" t="n">
-        <v>1643.169249656813</v>
+        <v>1576.467534036982</v>
       </c>
       <c r="R41" t="n">
-        <v>1679.572590988217</v>
+        <v>1677.930131042639</v>
       </c>
       <c r="S41" t="n">
-        <v>1703.758498777897</v>
+        <v>1702.11603883232</v>
       </c>
       <c r="T41" t="n">
-        <v>1703.758498777897</v>
+        <v>1703.758498777896</v>
       </c>
       <c r="U41" t="n">
-        <v>1674.848861722738</v>
+        <v>1674.848861722737</v>
       </c>
       <c r="V41" t="n">
         <v>1568.7226680773</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="C42" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="D42" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="E42" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="F42" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="G42" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="H42" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="I42" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="J42" t="n">
-        <v>76.86137834097202</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="K42" t="n">
-        <v>76.86137834097202</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="L42" t="n">
-        <v>76.86137834097202</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="M42" t="n">
-        <v>76.86137834097202</v>
+        <v>53.55558339868584</v>
       </c>
       <c r="N42" t="n">
-        <v>76.86137834097202</v>
+        <v>53.55558339868584</v>
       </c>
       <c r="O42" t="n">
-        <v>76.86137834097202</v>
+        <v>53.55558339868584</v>
       </c>
       <c r="P42" t="n">
-        <v>76.86137834097202</v>
+        <v>53.55558339868584</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.86137834097202</v>
+        <v>53.55558339868584</v>
       </c>
       <c r="R42" t="n">
-        <v>76.86137834097202</v>
+        <v>53.55558339868584</v>
       </c>
       <c r="S42" t="n">
-        <v>76.86137834097202</v>
+        <v>53.55558339868584</v>
       </c>
       <c r="T42" t="n">
-        <v>76.86137834097202</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="U42" t="n">
-        <v>73.59124753923696</v>
+        <v>73.59124753923689</v>
       </c>
       <c r="V42" t="n">
-        <v>63.37583300562692</v>
+        <v>63.37583300562687</v>
       </c>
       <c r="W42" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="X42" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="Y42" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.56360976394581</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="C43" t="n">
-        <v>80.56360976394581</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="D43" t="n">
-        <v>80.56360976394581</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="E43" t="n">
-        <v>80.56360976394581</v>
+        <v>81.59719372793184</v>
       </c>
       <c r="F43" t="n">
-        <v>80.56360976394581</v>
+        <v>81.59719372793184</v>
       </c>
       <c r="G43" t="n">
-        <v>80.56360976394581</v>
+        <v>135.9563247178755</v>
       </c>
       <c r="H43" t="n">
-        <v>80.56360976394581</v>
+        <v>197.6767194829585</v>
       </c>
       <c r="I43" t="n">
-        <v>80.56360976394581</v>
+        <v>197.6767194829585</v>
       </c>
       <c r="J43" t="n">
-        <v>86.98078601840065</v>
+        <v>197.6767194829585</v>
       </c>
       <c r="K43" t="n">
-        <v>86.98078601840065</v>
+        <v>197.6767194829585</v>
       </c>
       <c r="L43" t="n">
-        <v>86.98078601840065</v>
+        <v>197.6767194829585</v>
       </c>
       <c r="M43" t="n">
-        <v>86.98078601840065</v>
+        <v>197.6767194829585</v>
       </c>
       <c r="N43" t="n">
-        <v>86.98078601840065</v>
+        <v>197.6767194829585</v>
       </c>
       <c r="O43" t="n">
-        <v>200.0160601605322</v>
+        <v>197.6767194829585</v>
       </c>
       <c r="P43" t="n">
-        <v>200.0160601605322</v>
+        <v>197.6767194829585</v>
       </c>
       <c r="Q43" t="n">
-        <v>200.0160601605322</v>
+        <v>197.6767194829585</v>
       </c>
       <c r="R43" t="n">
-        <v>200.0160601605322</v>
+        <v>197.6767194829585</v>
       </c>
       <c r="S43" t="n">
-        <v>200.0160601605322</v>
+        <v>200.0160601605319</v>
       </c>
       <c r="T43" t="n">
-        <v>195.6190720456848</v>
+        <v>195.6190720456847</v>
       </c>
       <c r="U43" t="n">
-        <v>131.3562980220248</v>
+        <v>131.3562980220247</v>
       </c>
       <c r="V43" t="n">
-        <v>101.6085035142706</v>
+        <v>101.6085035142705</v>
       </c>
       <c r="W43" t="n">
-        <v>37.12802717544263</v>
+        <v>37.12802717544257</v>
       </c>
       <c r="X43" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="Y43" t="n">
-        <v>38.13681665052392</v>
+        <v>34.07516997555793</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>965.4958572987036</v>
+        <v>965.4958572987024</v>
       </c>
       <c r="C44" t="n">
-        <v>821.4700340564248</v>
+        <v>821.4700340564236</v>
       </c>
       <c r="D44" t="n">
-        <v>688.1410291478069</v>
+        <v>688.1410291478056</v>
       </c>
       <c r="E44" t="n">
-        <v>527.2894702476954</v>
+        <v>527.2894702476941</v>
       </c>
       <c r="F44" t="n">
-        <v>341.2402591562204</v>
+        <v>341.2402591562193</v>
       </c>
       <c r="G44" t="n">
-        <v>147.1563273602456</v>
+        <v>147.1563273602455</v>
       </c>
       <c r="H44" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="I44" t="n">
         <v>64.19145262537589</v>
       </c>
       <c r="J44" t="n">
-        <v>145.1030096798317</v>
+        <v>64.19145262537589</v>
       </c>
       <c r="K44" t="n">
-        <v>528.0583184222102</v>
+        <v>126.2428029223013</v>
       </c>
       <c r="L44" t="n">
-        <v>949.7385468697398</v>
+        <v>187.0845182672968</v>
       </c>
       <c r="M44" t="n">
-        <v>1058.295106237828</v>
+        <v>608.7647467148262</v>
       </c>
       <c r="N44" t="n">
-        <v>1479.975334685358</v>
+        <v>898.0534303912655</v>
       </c>
       <c r="O44" t="n">
-        <v>1551.423071632521</v>
+        <v>1039.504192466552</v>
       </c>
       <c r="P44" t="n">
-        <v>1551.423071632521</v>
+        <v>1416.865460149613</v>
       </c>
       <c r="Q44" t="n">
-        <v>1602.295901772241</v>
+        <v>1677.930131042639</v>
       </c>
       <c r="R44" t="n">
-        <v>1703.758498777897</v>
+        <v>1677.930131042639</v>
       </c>
       <c r="S44" t="n">
-        <v>1703.758498777897</v>
+        <v>1702.11603883232</v>
       </c>
       <c r="T44" t="n">
-        <v>1703.758498777897</v>
+        <v>1703.758498777896</v>
       </c>
       <c r="U44" t="n">
-        <v>1674.848861722738</v>
+        <v>1674.848861722737</v>
       </c>
       <c r="V44" t="n">
-        <v>1568.7226680773</v>
+        <v>1568.722668077299</v>
       </c>
       <c r="W44" t="n">
-        <v>1440.890706505319</v>
+        <v>1440.890706505318</v>
       </c>
       <c r="X44" t="n">
-        <v>1292.361641942372</v>
+        <v>1292.36164194237</v>
       </c>
       <c r="Y44" t="n">
-        <v>1127.159003664693</v>
+        <v>1127.159003664691</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="C45" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="D45" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="E45" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="F45" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="G45" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="H45" t="n">
-        <v>76.86137834097202</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="I45" t="n">
-        <v>76.86137834097202</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="J45" t="n">
-        <v>76.86137834097202</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="K45" t="n">
-        <v>76.86137834097202</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="L45" t="n">
-        <v>76.86137834097202</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="M45" t="n">
-        <v>76.86137834097202</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="N45" t="n">
-        <v>76.86137834097202</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="O45" t="n">
-        <v>76.86137834097202</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="P45" t="n">
-        <v>76.86137834097202</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.86137834097202</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="R45" t="n">
-        <v>76.86137834097202</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="S45" t="n">
-        <v>76.86137834097202</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="T45" t="n">
-        <v>76.86137834097202</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="U45" t="n">
-        <v>73.59124753923696</v>
+        <v>73.59124753923689</v>
       </c>
       <c r="V45" t="n">
-        <v>63.37583300562692</v>
+        <v>63.37583300562687</v>
       </c>
       <c r="W45" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="X45" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="C46" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="D46" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="E46" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="F46" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="G46" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="H46" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="I46" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="J46" t="n">
-        <v>111.9821020853082</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="K46" t="n">
-        <v>111.9821020853082</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="L46" t="n">
-        <v>111.9821020853082</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="M46" t="n">
-        <v>111.9821020853082</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="N46" t="n">
-        <v>111.9821020853082</v>
+        <v>160.2239551984536</v>
       </c>
       <c r="O46" t="n">
-        <v>111.9821020853082</v>
+        <v>160.2239551984536</v>
       </c>
       <c r="P46" t="n">
-        <v>111.9821020853082</v>
+        <v>160.2239551984536</v>
       </c>
       <c r="Q46" t="n">
-        <v>200.0160601605322</v>
+        <v>160.2239551984536</v>
       </c>
       <c r="R46" t="n">
-        <v>200.0160601605322</v>
+        <v>200.0160601605319</v>
       </c>
       <c r="S46" t="n">
-        <v>200.0160601605322</v>
+        <v>200.0160601605319</v>
       </c>
       <c r="T46" t="n">
-        <v>195.6190720456848</v>
+        <v>195.6190720456847</v>
       </c>
       <c r="U46" t="n">
-        <v>131.3562980220248</v>
+        <v>131.3562980220247</v>
       </c>
       <c r="V46" t="n">
-        <v>101.6085035142706</v>
+        <v>101.6085035142705</v>
       </c>
       <c r="W46" t="n">
-        <v>37.12802717544263</v>
+        <v>37.12802717544257</v>
       </c>
       <c r="X46" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.07516997555795</v>
+        <v>34.07516997555793</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>129.5164556550224</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>59.32475785584292</v>
+        <v>264.2504170672568</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>147.250989513128</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>150.5178955013911</v>
+        <v>48.61160472234063</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>4.159688694006249</v>
       </c>
       <c r="Q11" t="n">
-        <v>69.3943388712724</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8845,28 +8845,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.492023010096705</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>105.7148695525911</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>108.5102821731397</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>112.1038084270827</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>140.9584812516</v>
       </c>
       <c r="K14" t="n">
-        <v>80.20039229177841</v>
+        <v>94.82538324387409</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>59.32475785584288</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>147.411276751902</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>43.22984204057077</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>266.3324057053402</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>173.1034156547415</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9097,10 +9097,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>140.9584812516</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>263.1707371441075</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,25 +9951,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>102.9618319903678</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.68361168878386</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>65.61538793357943</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>82.46949852711533</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>186.776570764375</v>
       </c>
       <c r="Q27" t="n">
         <v>107.7232378871912</v>
@@ -10042,13 +10042,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>114.491087697642</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>131.7818174534924</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>346.8053275203486</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10130,7 +10130,7 @@
         <v>163.3130372729767</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,28 +10185,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>102.9618319903678</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>165.199022643498</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>78.10243564664634</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>65.61538793357938</v>
       </c>
       <c r="O30" t="n">
-        <v>82.46949852711531</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>85.71739294811687</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10273,16 +10273,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>103.3860221017998</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>105.7148695525911</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>138.8847272553463</v>
       </c>
       <c r="O31" t="n">
-        <v>122.2506496634998</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>93.32146916655823</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>160.0091951480954</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>179.1081955616797</v>
+        <v>174.4028720497495</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,19 +10428,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>97.03390299193956</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>83.6836116887838</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>65.61538793357938</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.46949852711529</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,25 +10504,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>103.3860221017998</v>
       </c>
       <c r="M34" t="n">
-        <v>105.7148695525911</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>364.4833465682163</v>
+        <v>364.4833465682161</v>
       </c>
       <c r="M35" t="n">
-        <v>350.6635746852251</v>
+        <v>350.6635746852248</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>172.1815293605088</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>353.7701934347139</v>
       </c>
       <c r="P35" t="n">
-        <v>233.1359624716531</v>
+        <v>67.62417150461799</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>171.3006296503228</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>83.6836116887838</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>103.3860221017998</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10762,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>102.4059042727943</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>316.8753743774419</v>
       </c>
       <c r="M38" t="n">
-        <v>350.663574685225</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>348.3884307529441</v>
+        <v>96.9031824044645</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>353.7701934347139</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>171.3006296503228</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>102.9618319903678</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>65.61538793357938</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10984,16 +10984,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>103.3860221017998</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>95.2643113844891</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>108.5102821731397</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>3.943107990652756</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>348.3884307529442</v>
+        <v>348.3884307529439</v>
       </c>
       <c r="O41" t="n">
-        <v>353.7701934347141</v>
+        <v>200.7509699387296</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>65.61538793357938</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>104.3983137891471</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11230,7 +11230,7 @@
         <v>95.2643113844891</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>108.5102821731397</v>
       </c>
       <c r="P43" t="n">
         <v>112.1038084270827</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>39.46300867644239</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>364.4833465682163</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>257.0643670226985</v>
+        <v>350.6635746852248</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>70.71012639204451</v>
       </c>
       <c r="P44" t="n">
-        <v>7.839959429617849</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>83.6836116887838</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,19 +11455,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>104.3983137891471</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>103.3860221017998</v>
       </c>
       <c r="M46" t="n">
         <v>105.7148695525911</v>
       </c>
       <c r="N46" t="n">
-        <v>95.2643113844891</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>108.5102821731397</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.78881401970312</v>
+        <v>74.7888140197031</v>
       </c>
       <c r="C11" t="n">
         <v>160.3472325595936</v>
       </c>
       <c r="D11" t="n">
-        <v>149.757382409269</v>
+        <v>46.73801397690548</v>
       </c>
       <c r="E11" t="n">
-        <v>177.0047108608479</v>
+        <v>177.0047108608478</v>
       </c>
       <c r="F11" t="n">
-        <v>98.93101809793399</v>
+        <v>201.9503865302975</v>
       </c>
       <c r="G11" t="n">
-        <v>106.8853915953879</v>
+        <v>209.9047600277514</v>
       </c>
       <c r="H11" t="n">
         <v>129.7120133605782</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>16.10261709965994</v>
+        <v>16.1026170996599</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>122.826599258721</v>
+        <v>78.46934777784011</v>
       </c>
       <c r="W11" t="n">
-        <v>99.95805802511825</v>
+        <v>41.29594107363553</v>
       </c>
       <c r="X11" t="n">
         <v>164.8054414670551</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.3122794446397</v>
+        <v>181.3122794446396</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.8081824520667</v>
+        <v>177.8081824520666</v>
       </c>
       <c r="C14" t="n">
-        <v>160.3472325595937</v>
+        <v>132.0925981783727</v>
       </c>
       <c r="D14" t="n">
-        <v>105.4001309283883</v>
+        <v>149.757382409269</v>
       </c>
       <c r="E14" t="n">
-        <v>177.0047108608479</v>
+        <v>177.0047108608478</v>
       </c>
       <c r="F14" t="n">
         <v>201.9503865302975</v>
@@ -23510,7 +23510,7 @@
         <v>209.9047600277514</v>
       </c>
       <c r="H14" t="n">
-        <v>26.69264492821468</v>
+        <v>26.69264492821464</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>16.10261709965996</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>19.80723082635748</v>
+        <v>19.80723082635744</v>
       </c>
       <c r="W14" t="n">
-        <v>41.29594107363559</v>
+        <v>144.3153095059991</v>
       </c>
       <c r="X14" t="n">
         <v>164.8054414670551</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.3122794446397</v>
+        <v>78.29291101227612</v>
       </c>
     </row>
     <row r="15">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755221.666259306</v>
+        <v>755221.6662593061</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755221.6662593057</v>
+        <v>755221.6662593063</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>969930.4024407802</v>
+        <v>969930.4024407801</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>969930.4024407801</v>
+        <v>969930.4024407803</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>969930.4024407801</v>
+        <v>969930.40244078</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>918252.914869151</v>
+        <v>918252.9148691512</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>918252.9148691512</v>
+        <v>918252.9148691511</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>918252.9148691512</v>
+        <v>918252.9148691511</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>918252.9148691512</v>
+        <v>918252.9148691511</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698525</v>
+        <v>593975.3455698529</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698525</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698525</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="E2" t="n">
-        <v>509704.1579279692</v>
+        <v>509704.1579279695</v>
       </c>
       <c r="F2" t="n">
         <v>509704.1579279695</v>
@@ -26329,31 +26329,31 @@
         <v>595255.2831516055</v>
       </c>
       <c r="H2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="I2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="J2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="K2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="L2" t="n">
-        <v>595255.2831516044</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="M2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.283151606</v>
       </c>
       <c r="N2" t="n">
-        <v>595255.2831516062</v>
+        <v>595255.2831516059</v>
       </c>
       <c r="O2" t="n">
         <v>595255.283151606</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.283151606</v>
+        <v>595255.2831516061</v>
       </c>
     </row>
     <row r="3">
@@ -26381,7 +26381,7 @@
         <v>103769.6106884625</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>103769.6106884625</v>
       </c>
       <c r="M3" t="n">
-        <v>24336.39002005491</v>
+        <v>24336.39002005489</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>50043.86070040357</v>
+        <v>50043.86070040368</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,13 +26433,13 @@
         <v>428069.0404678959</v>
       </c>
       <c r="H4" t="n">
+        <v>428069.040467896</v>
+      </c>
+      <c r="I4" t="n">
         <v>428069.0404678959</v>
       </c>
-      <c r="I4" t="n">
-        <v>428069.040467896</v>
-      </c>
       <c r="J4" t="n">
-        <v>436259.144862757</v>
+        <v>436259.1448627571</v>
       </c>
       <c r="K4" t="n">
         <v>436259.1448627571</v>
@@ -26451,10 +26451,10 @@
         <v>433189.2498249456</v>
       </c>
       <c r="N4" t="n">
-        <v>433189.2498249456</v>
+        <v>433189.2498249455</v>
       </c>
       <c r="O4" t="n">
-        <v>433189.2498249456</v>
+        <v>433189.2498249455</v>
       </c>
       <c r="P4" t="n">
         <v>433189.2498249456</v>
@@ -26482,7 +26482,7 @@
         <v>26052.73677594694</v>
       </c>
       <c r="G5" t="n">
-        <v>36957.49602715738</v>
+        <v>36957.49602715739</v>
       </c>
       <c r="H5" t="n">
         <v>36957.49602715739</v>
@@ -26491,25 +26491,25 @@
         <v>36957.49602715739</v>
       </c>
       <c r="J5" t="n">
+        <v>50885.65162086484</v>
+      </c>
+      <c r="K5" t="n">
         <v>50885.65162086485</v>
-      </c>
-      <c r="K5" t="n">
-        <v>50885.65162086486</v>
       </c>
       <c r="L5" t="n">
         <v>50885.65162086485</v>
       </c>
       <c r="M5" t="n">
-        <v>47179.49398592215</v>
+        <v>47179.49398592213</v>
       </c>
       <c r="N5" t="n">
-        <v>47179.49398592215</v>
+        <v>47179.49398592213</v>
       </c>
       <c r="O5" t="n">
-        <v>47179.49398592215</v>
+        <v>47179.49398592213</v>
       </c>
       <c r="P5" t="n">
-        <v>47179.49398592215</v>
+        <v>47179.49398592213</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92731.78563812128</v>
+        <v>92727.37206025352</v>
       </c>
       <c r="C6" t="n">
-        <v>92731.78563812128</v>
+        <v>92727.37206025328</v>
       </c>
       <c r="D6" t="n">
-        <v>92731.78563812128</v>
+        <v>92727.37206025328</v>
       </c>
       <c r="E6" t="n">
-        <v>-167986.179122121</v>
+        <v>-168281.1830022024</v>
       </c>
       <c r="F6" t="n">
-        <v>121104.8178022007</v>
+        <v>120809.8139221192</v>
       </c>
       <c r="G6" t="n">
         <v>26459.13596808971</v>
       </c>
       <c r="H6" t="n">
-        <v>130228.7466565522</v>
+        <v>130228.7466565523</v>
       </c>
       <c r="I6" t="n">
-        <v>130228.7466565522</v>
+        <v>130228.7466565521</v>
       </c>
       <c r="J6" t="n">
-        <v>-53377.92119598172</v>
+        <v>-53377.92119598141</v>
       </c>
       <c r="K6" t="n">
-        <v>108110.4866679828</v>
+        <v>108110.4866679834</v>
       </c>
       <c r="L6" t="n">
-        <v>4340.875979520046</v>
+        <v>4340.875979520635</v>
       </c>
       <c r="M6" t="n">
-        <v>90550.14932068273</v>
+        <v>90550.14932068338</v>
       </c>
       <c r="N6" t="n">
-        <v>114886.5393407383</v>
+        <v>114886.5393407382</v>
       </c>
       <c r="O6" t="n">
-        <v>64842.67864033462</v>
+        <v>64842.67864033463</v>
       </c>
       <c r="P6" t="n">
-        <v>114886.5393407382</v>
+        <v>114886.5393407384</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>204.9256592114139</v>
       </c>
       <c r="G2" t="n">
-        <v>334.637672571992</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="H2" t="n">
         <v>334.6376725719921</v>
@@ -26719,13 +26719,13 @@
         <v>222.6873267611513</v>
       </c>
       <c r="N2" t="n">
+        <v>222.6873267611513</v>
+      </c>
+      <c r="O2" t="n">
         <v>222.6873267611514</v>
       </c>
-      <c r="O2" t="n">
-        <v>222.6873267611513</v>
-      </c>
       <c r="P2" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
     </row>
     <row r="3">
@@ -26759,10 +26759,10 @@
         <v>117.4891711474716</v>
       </c>
       <c r="J3" t="n">
+        <v>117.4891711474715</v>
+      </c>
+      <c r="K3" t="n">
         <v>117.4891711474716</v>
-      </c>
-      <c r="K3" t="n">
-        <v>117.4891711474715</v>
       </c>
       <c r="L3" t="n">
         <v>117.4891711474716</v>
@@ -26811,25 +26811,25 @@
         <v>103.0193684323635</v>
       </c>
       <c r="J4" t="n">
-        <v>528.9589931268379</v>
+        <v>528.9589931268376</v>
       </c>
       <c r="K4" t="n">
-        <v>528.9589931268379</v>
+        <v>528.9589931268376</v>
       </c>
       <c r="L4" t="n">
-        <v>528.9589931268379</v>
+        <v>528.9589931268376</v>
       </c>
       <c r="M4" t="n">
-        <v>425.9396246944743</v>
+        <v>425.9396246944741</v>
       </c>
       <c r="N4" t="n">
-        <v>425.9396246944743</v>
+        <v>425.9396246944741</v>
       </c>
       <c r="O4" t="n">
-        <v>425.9396246944743</v>
+        <v>425.9396246944741</v>
       </c>
       <c r="P4" t="n">
-        <v>425.9396246944743</v>
+        <v>425.9396246944741</v>
       </c>
     </row>
   </sheetData>
@@ -26923,13 +26923,13 @@
         <v>129.7120133605781</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62.55482587550449</v>
+        <v>62.55482587550458</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>129.7120133605781</v>
       </c>
       <c r="M2" t="n">
-        <v>30.42048752506864</v>
+        <v>30.42048752506861</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.55482587550446</v>
+        <v>62.5548258755046</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>425.9396246944743</v>
+        <v>425.9396246944741</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>129.7120133605781</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.55482587550449</v>
+        <v>62.55482587550458</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28108,37 +28108,37 @@
         <v>204.9256592114139</v>
       </c>
       <c r="I11" t="n">
-        <v>192.2668392360827</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="J11" t="n">
-        <v>1.901952425944349</v>
+        <v>11.44202559657759</v>
       </c>
       <c r="K11" t="n">
         <v>204.9256592114139</v>
       </c>
       <c r="L11" t="n">
-        <v>204.9256592114139</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>204.9256592114139</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>145.1361328196212</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="P11" t="n">
         <v>204.9256592114139</v>
       </c>
       <c r="Q11" t="n">
-        <v>204.9256592114139</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>204.9256592114139</v>
+        <v>120.1998550382658</v>
       </c>
       <c r="S11" t="n">
-        <v>204.9256592114139</v>
+        <v>198.257116872585</v>
       </c>
       <c r="T11" t="n">
         <v>204.9256592114139</v>
@@ -28190,7 +28190,7 @@
         <v>90.8215310046448</v>
       </c>
       <c r="J12" t="n">
-        <v>102.9618319903678</v>
+        <v>202.1840659347878</v>
       </c>
       <c r="K12" t="n">
         <v>97.03390299193956</v>
@@ -28202,7 +28202,7 @@
         <v>78.10243564664633</v>
       </c>
       <c r="N12" t="n">
-        <v>164.8376218779995</v>
+        <v>65.61538793357938</v>
       </c>
       <c r="O12" t="n">
         <v>82.46949852711529</v>
@@ -28269,28 +28269,28 @@
         <v>149.0790949574905</v>
       </c>
       <c r="J13" t="n">
-        <v>78.38027382136316</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="K13" t="n">
+        <v>104.3983137891471</v>
+      </c>
+      <c r="L13" t="n">
+        <v>103.3860221017998</v>
+      </c>
+      <c r="M13" t="n">
+        <v>105.7148695525911</v>
+      </c>
+      <c r="N13" t="n">
+        <v>193.8160379483521</v>
+      </c>
+      <c r="O13" t="n">
         <v>204.9256592114139</v>
       </c>
-      <c r="L13" t="n">
-        <v>185.2235329065376</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>198.2836798168526</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>112.1038084270827</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.42117840842619</v>
+        <v>133.7641367861776</v>
       </c>
       <c r="R13" t="n">
         <v>167.7671382542942</v>
@@ -28345,34 +28345,34 @@
         <v>204.9256592114139</v>
       </c>
       <c r="I14" t="n">
-        <v>192.2668392360827</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="J14" t="n">
-        <v>204.9256592114139</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>117.4376713745877</v>
+        <v>65.1838119042213</v>
       </c>
       <c r="L14" t="n">
         <v>204.9256592114139</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>204.9256592114139</v>
-      </c>
-      <c r="N14" t="n">
-        <v>145.1361328196212</v>
       </c>
       <c r="O14" t="n">
         <v>204.9256592114139</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>120.1998550382658</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="S14" t="n">
         <v>204.9256592114139</v>
@@ -28433,7 +28433,7 @@
         <v>97.03390299193956</v>
       </c>
       <c r="L15" t="n">
-        <v>182.9058456332041</v>
+        <v>83.6836116887838</v>
       </c>
       <c r="M15" t="n">
         <v>78.10243564664633</v>
@@ -28442,7 +28442,7 @@
         <v>65.61538793357938</v>
       </c>
       <c r="O15" t="n">
-        <v>82.46949852711529</v>
+        <v>181.6917324715353</v>
       </c>
       <c r="P15" t="n">
         <v>85.71739294811687</v>
@@ -28503,34 +28503,34 @@
         <v>160.343493665108</v>
       </c>
       <c r="I16" t="n">
-        <v>149.0790949574905</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="J16" t="n">
-        <v>78.38027382136316</v>
+        <v>112.0165151440865</v>
       </c>
       <c r="K16" t="n">
         <v>204.9256592114139</v>
       </c>
       <c r="L16" t="n">
-        <v>204.9256592114139</v>
+        <v>197.7298391379543</v>
       </c>
       <c r="M16" t="n">
-        <v>114.089995610474</v>
+        <v>105.7148695525911</v>
       </c>
       <c r="N16" t="n">
         <v>95.2643113844891</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>108.5102821731397</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>112.1038084270827</v>
       </c>
       <c r="Q16" t="n">
         <v>133.7641367861776</v>
       </c>
       <c r="R16" t="n">
-        <v>167.7671382542942</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="S16" t="n">
         <v>204.9256592114139</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>334.637672571992</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="C17" t="n">
-        <v>334.637672571992</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="D17" t="n">
-        <v>334.637672571992</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="E17" t="n">
-        <v>334.637672571992</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="F17" t="n">
-        <v>334.637672571992</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="G17" t="n">
-        <v>334.637672571992</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="H17" t="n">
-        <v>334.637672571992</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="I17" t="n">
         <v>192.2668392360827</v>
@@ -28594,7 +28594,7 @@
         <v>264.2504170672568</v>
       </c>
       <c r="M17" t="n">
-        <v>147.411276751902</v>
+        <v>250.4306451842655</v>
       </c>
       <c r="N17" t="n">
         <v>145.1361328196212</v>
@@ -28603,10 +28603,10 @@
         <v>150.5178955013911</v>
       </c>
       <c r="P17" t="n">
-        <v>262.1700069808003</v>
+        <v>266.3324057053402</v>
       </c>
       <c r="Q17" t="n">
-        <v>274.3199980826864</v>
+        <v>263.2721852562892</v>
       </c>
       <c r="R17" t="n">
         <v>185.9162749112483</v>
@@ -28615,22 +28615,22 @@
         <v>198.257116872585</v>
       </c>
       <c r="T17" t="n">
-        <v>324.0476447434374</v>
+        <v>221.0282763110739</v>
       </c>
       <c r="U17" t="n">
         <v>251.3078674457589</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="W17" t="n">
-        <v>334.637672571992</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="X17" t="n">
-        <v>334.637672571992</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="Y17" t="n">
-        <v>334.637672571992</v>
+        <v>334.6376725719921</v>
       </c>
     </row>
     <row r="18">
@@ -28822,7 +28822,7 @@
         <v>295.2862076684463</v>
       </c>
       <c r="J20" t="n">
-        <v>149.6002317313333</v>
+        <v>140.9584812516</v>
       </c>
       <c r="K20" t="n">
         <v>160.0091951480954</v>
@@ -28837,28 +28837,28 @@
         <v>145.1361328196212</v>
       </c>
       <c r="O20" t="n">
-        <v>253.5372639337546</v>
+        <v>150.5178955013911</v>
       </c>
       <c r="P20" t="n">
-        <v>163.3130372729767</v>
+        <v>266.3324057053402</v>
       </c>
       <c r="Q20" t="n">
-        <v>171.3006296503228</v>
+        <v>270.1575993581463</v>
       </c>
       <c r="R20" t="n">
-        <v>185.9162749112483</v>
+        <v>288.9356433436118</v>
       </c>
       <c r="S20" t="n">
         <v>198.257116872585</v>
       </c>
       <c r="T20" t="n">
-        <v>324.0476447434374</v>
+        <v>221.0282763110739</v>
       </c>
       <c r="U20" t="n">
-        <v>334.6376725719921</v>
+        <v>251.3078674457589</v>
       </c>
       <c r="V20" t="n">
-        <v>334.6376725719921</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>334.6376725719921</v>
@@ -29065,16 +29065,16 @@
         <v>160.0091951480954</v>
       </c>
       <c r="L23" t="n">
-        <v>260.0880183427169</v>
+        <v>176.7582132164837</v>
       </c>
       <c r="M23" t="n">
-        <v>147.411276751902</v>
+        <v>250.4306451842655</v>
       </c>
       <c r="N23" t="n">
-        <v>248.1555012519847</v>
+        <v>145.1361328196212</v>
       </c>
       <c r="O23" t="n">
-        <v>253.5372639337546</v>
+        <v>150.5178955013911</v>
       </c>
       <c r="P23" t="n">
         <v>163.3130372729767</v>
@@ -29083,7 +29083,7 @@
         <v>171.3006296503228</v>
       </c>
       <c r="R23" t="n">
-        <v>185.9162749112483</v>
+        <v>288.9356433436117</v>
       </c>
       <c r="S23" t="n">
         <v>301.2764853049485</v>
@@ -29092,7 +29092,7 @@
         <v>221.0282763110739</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3078674457589</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -29296,7 +29296,7 @@
         <v>192.2668392360827</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="K26" t="n">
         <v>192.2668392360827</v>
@@ -29311,7 +29311,7 @@
         <v>192.2668392360827</v>
       </c>
       <c r="O26" t="n">
-        <v>12.6133590263635</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -29320,7 +29320,7 @@
         <v>192.2668392360827</v>
       </c>
       <c r="R26" t="n">
-        <v>120.1998550382658</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="S26" t="n">
         <v>192.2668392360827</v>
@@ -29372,34 +29372,34 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I27" t="n">
-        <v>192.2668392360827</v>
+        <v>90.8215310046448</v>
       </c>
       <c r="J27" t="n">
-        <v>102.9618319903678</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>166.4090129609312</v>
+        <v>97.03390299193958</v>
       </c>
       <c r="L27" t="n">
-        <v>83.6836116887838</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>78.10243564664633</v>
+        <v>78.10243564664637</v>
       </c>
       <c r="N27" t="n">
-        <v>65.61538793357938</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>82.46949852711529</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>85.71739294811687</v>
+        <v>69.76124038417109</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>84.46748786242041</v>
+        <v>84.46748786242043</v>
       </c>
       <c r="S27" t="n">
         <v>166.9891461999742</v>
@@ -29430,16 +29430,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>192.2668392360827</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>192.2668392360827</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>192.2668392360827</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -29448,7 +29448,7 @@
         <v>167.7791136399961</v>
       </c>
       <c r="H28" t="n">
-        <v>192.2668392360827</v>
+        <v>160.343493665108</v>
       </c>
       <c r="I28" t="n">
         <v>149.0790949574905</v>
@@ -29457,22 +29457,22 @@
         <v>112.0165151440865</v>
       </c>
       <c r="K28" t="n">
-        <v>104.3983137891471</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>82.92943294108576</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>95.26431138448912</v>
       </c>
       <c r="O28" t="n">
-        <v>108.5102821731397</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>148.1517428375647</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Q28" t="n">
         <v>68.42117840842619</v>
@@ -29533,28 +29533,28 @@
         <v>192.2668392360827</v>
       </c>
       <c r="J29" t="n">
+        <v>178.9678406736709</v>
+      </c>
+      <c r="K29" t="n">
         <v>192.2668392360827</v>
       </c>
-      <c r="K29" t="n">
-        <v>17.34449719965988</v>
-      </c>
       <c r="L29" t="n">
-        <v>192.2668392360827</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>192.2668392360827</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>192.2668392360827</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>171.3006296503228</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="R29" t="n">
         <v>192.2668392360827</v>
@@ -29609,34 +29609,34 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I30" t="n">
-        <v>90.8215310046448</v>
+        <v>80.69578385605988</v>
       </c>
       <c r="J30" t="n">
-        <v>192.2668392360827</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>97.03390299193956</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>83.6836116887838</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="N30" t="n">
-        <v>65.6153879335794</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>139.1255131381079</v>
       </c>
       <c r="P30" t="n">
-        <v>85.7173929481169</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>107.7232378871912</v>
       </c>
       <c r="R30" t="n">
-        <v>84.46748786242043</v>
+        <v>84.46748786242041</v>
       </c>
       <c r="S30" t="n">
         <v>166.9891461999742</v>
@@ -29670,43 +29670,43 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>192.2668392360827</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>192.2668392360827</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>192.2668392360827</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>192.2668392360827</v>
+        <v>167.7791136399961</v>
       </c>
       <c r="H31" t="n">
-        <v>192.2668392360827</v>
+        <v>160.343493665108</v>
       </c>
       <c r="I31" t="n">
         <v>149.0790949574905</v>
       </c>
       <c r="J31" t="n">
-        <v>192.2668392360827</v>
+        <v>112.0165151440865</v>
       </c>
       <c r="K31" t="n">
         <v>192.2668392360827</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>103.3860221017998</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>95.2643113844891</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="P31" t="n">
         <v>112.1038084270827</v>
@@ -29715,7 +29715,7 @@
         <v>68.42117840842619</v>
       </c>
       <c r="R31" t="n">
-        <v>192.2668392360827</v>
+        <v>167.7671382542942</v>
       </c>
       <c r="S31" t="n">
         <v>192.2668392360827</v>
@@ -29770,13 +29770,13 @@
         <v>192.2668392360827</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>47.63701208504177</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>192.2668392360827</v>
-      </c>
-      <c r="L32" t="n">
-        <v>187.5540036166932</v>
       </c>
       <c r="M32" t="n">
         <v>192.2668392360827</v>
@@ -29788,13 +29788,13 @@
         <v>192.2668392360827</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="R32" t="n">
-        <v>185.9162749112483</v>
+        <v>120.1998550382658</v>
       </c>
       <c r="S32" t="n">
         <v>192.2668392360827</v>
@@ -29846,34 +29846,34 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I33" t="n">
-        <v>192.2668392360827</v>
+        <v>90.8215310046448</v>
       </c>
       <c r="J33" t="n">
         <v>102.9618319903678</v>
       </c>
       <c r="K33" t="n">
-        <v>97.03390299193956</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>83.6836116887838</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>78.10243564664633</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>151.892204785117</v>
       </c>
       <c r="O33" t="n">
-        <v>82.46949852711529</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>85.71739294811687</v>
       </c>
       <c r="Q33" t="n">
-        <v>177.0983478561827</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="R33" t="n">
-        <v>129.9891576737412</v>
+        <v>84.46748786242041</v>
       </c>
       <c r="S33" t="n">
         <v>166.9891461999742</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>192.2668392360827</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -29925,34 +29925,34 @@
         <v>160.343493665108</v>
       </c>
       <c r="I34" t="n">
-        <v>192.2668392360827</v>
+        <v>149.0790949574905</v>
       </c>
       <c r="J34" t="n">
-        <v>192.2668392360827</v>
+        <v>112.0165151440865</v>
       </c>
       <c r="K34" t="n">
         <v>104.3983137891471</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>105.7148695525911</v>
+      </c>
+      <c r="N34" t="n">
+        <v>142.5396433031146</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>192.2668392360827</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>95.2643113844891</v>
-      </c>
-      <c r="O34" t="n">
-        <v>147.002003701155</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
       <c r="Q34" t="n">
+        <v>133.7641367861776</v>
+      </c>
+      <c r="R34" t="n">
         <v>192.2668392360827</v>
-      </c>
-      <c r="R34" t="n">
-        <v>167.7671382542942</v>
       </c>
       <c r="S34" t="n">
         <v>192.2668392360827</v>
@@ -30004,13 +30004,13 @@
         <v>222.6873267611513</v>
       </c>
       <c r="I35" t="n">
-        <v>192.2668392360827</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="J35" t="n">
-        <v>147.1185915175444</v>
+        <v>140.9584812516</v>
       </c>
       <c r="K35" t="n">
-        <v>222.6873267611513</v>
+        <v>160.0091951480954</v>
       </c>
       <c r="L35" t="n">
         <v>222.6873267611513</v>
@@ -30025,16 +30025,16 @@
         <v>222.6873267611513</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>95.6888657683587</v>
       </c>
       <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
         <v>222.6873267611513</v>
       </c>
-      <c r="R35" t="n">
-        <v>120.1998550382658</v>
-      </c>
       <c r="S35" t="n">
-        <v>198.257116872585</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="T35" t="n">
         <v>222.6873267611513</v>
@@ -30083,16 +30083,16 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I36" t="n">
-        <v>80.69578385605988</v>
+        <v>90.8215310046448</v>
       </c>
       <c r="J36" t="n">
-        <v>146.180224278665</v>
+        <v>102.9618319903678</v>
       </c>
       <c r="K36" t="n">
         <v>97.03390299193956</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>83.6836116887838</v>
       </c>
       <c r="M36" t="n">
         <v>78.10243564664633</v>
@@ -30104,7 +30104,7 @@
         <v>82.46949852711529</v>
       </c>
       <c r="P36" t="n">
-        <v>85.71739294811687</v>
+        <v>128.9357852364139</v>
       </c>
       <c r="Q36" t="n">
         <v>107.7232378871912</v>
@@ -30144,7 +30144,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>222.6873267611513</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -30171,7 +30171,7 @@
         <v>104.3983137891471</v>
       </c>
       <c r="L37" t="n">
-        <v>209.0969334417362</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>105.7148695525911</v>
@@ -30180,19 +30180,19 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>108.5102821731397</v>
+        <v>187.2041529910692</v>
       </c>
       <c r="P37" t="n">
         <v>112.1038084270827</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.42117840842619</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="R37" t="n">
         <v>167.7671382542942</v>
       </c>
       <c r="S37" t="n">
-        <v>222.6873267611513</v>
+        <v>220.324356379764</v>
       </c>
       <c r="T37" t="n">
         <v>222.6873267611513</v>
@@ -30210,7 +30210,7 @@
         <v>222.6873267611513</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.6873267611513</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="C38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="D38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="E38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="F38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="G38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="H38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="I38" t="n">
-        <v>222.6873267611514</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13894286739924</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="K38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="L38" t="n">
-        <v>222.6873267611514</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="N38" t="n">
-        <v>222.6873267611514</v>
+        <v>48.23295041515669</v>
       </c>
       <c r="O38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="P38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="R38" t="n">
-        <v>120.1998550382658</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="S38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="T38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="U38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="V38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="W38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="X38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="Y38" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
     </row>
     <row r="39">
@@ -30323,7 +30323,7 @@
         <v>90.8215310046448</v>
       </c>
       <c r="J39" t="n">
-        <v>102.9618319903678</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>97.03390299193956</v>
@@ -30335,10 +30335,10 @@
         <v>78.10243564664633</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>85.29257320946628</v>
       </c>
       <c r="O39" t="n">
-        <v>125.6878908154123</v>
+        <v>82.46949852711529</v>
       </c>
       <c r="P39" t="n">
         <v>85.71739294811687</v>
@@ -30353,16 +30353,16 @@
         <v>166.9891461999742</v>
       </c>
       <c r="T39" t="n">
-        <v>199.1461197487412</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="U39" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="V39" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="W39" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -30408,46 +30408,46 @@
         <v>104.3983137891471</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="M40" t="n">
         <v>105.7148695525911</v>
       </c>
       <c r="N40" t="n">
-        <v>95.2643113844891</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>128.1812910751553</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>112.1038084270827</v>
       </c>
       <c r="Q40" t="n">
-        <v>222.6873267611514</v>
+        <v>179.716922538342</v>
       </c>
       <c r="R40" t="n">
-        <v>222.6873267611514</v>
+        <v>167.7671382542942</v>
       </c>
       <c r="S40" t="n">
-        <v>220.324356379764</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="T40" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="U40" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="V40" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="W40" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="X40" t="n">
-        <v>222.6873267611514</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.6873267611514</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="C41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="D41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="E41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="F41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="G41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="I41" t="n">
-        <v>192.2668392360827</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="J41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="L41" t="n">
-        <v>199.5772693736128</v>
+        <v>169.509458778917</v>
       </c>
       <c r="M41" t="n">
-        <v>123.8373679535439</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="N41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="O41" t="n">
-        <v>222.6873267611513</v>
+        <v>136.2709807574871</v>
       </c>
       <c r="P41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="Q41" t="n">
-        <v>171.3006296503228</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="S41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="T41" t="n">
-        <v>221.0282763110739</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="U41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="V41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="W41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="X41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="Y41" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
     </row>
     <row r="42">
@@ -30557,10 +30557,10 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I42" t="n">
-        <v>90.8215310046448</v>
+        <v>80.69578385605988</v>
       </c>
       <c r="J42" t="n">
-        <v>146.1802242786648</v>
+        <v>102.9618319903678</v>
       </c>
       <c r="K42" t="n">
         <v>97.03390299193956</v>
@@ -30569,10 +30569,10 @@
         <v>83.6836116887838</v>
       </c>
       <c r="M42" t="n">
-        <v>78.10243564664633</v>
+        <v>97.77962092253311</v>
       </c>
       <c r="N42" t="n">
-        <v>65.61538793357938</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>82.46949852711529</v>
@@ -30584,22 +30584,22 @@
         <v>107.7232378871912</v>
       </c>
       <c r="R42" t="n">
-        <v>129.9891576737412</v>
+        <v>84.46748786242041</v>
       </c>
       <c r="S42" t="n">
         <v>166.9891461999742</v>
       </c>
       <c r="T42" t="n">
-        <v>199.1461197487412</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="U42" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="V42" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="W42" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.6873267611513</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -30624,25 +30624,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>194.4360068408863</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7791136399961</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="H43" t="n">
-        <v>160.343493665108</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="I43" t="n">
         <v>149.0790949574905</v>
       </c>
       <c r="J43" t="n">
-        <v>118.4985113607076</v>
+        <v>112.0165151440865</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>104.3983137891471</v>
       </c>
       <c r="L43" t="n">
         <v>103.3860221017998</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>222.6873267611513</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>167.7671382542942</v>
       </c>
       <c r="S43" t="n">
-        <v>220.324356379764</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="T43" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="U43" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="V43" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="W43" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="X43" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.6873267611513</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="C44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="D44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="E44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="F44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="G44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="I44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="J44" t="n">
-        <v>222.6873267611513</v>
+        <v>101.4954725751576</v>
       </c>
       <c r="K44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="L44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="N44" t="n">
-        <v>133.7288331021114</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="P44" t="n">
-        <v>155.4730778433589</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="R44" t="n">
-        <v>222.6873267611513</v>
+        <v>120.1998550382658</v>
       </c>
       <c r="S44" t="n">
-        <v>198.257116872585</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="T44" t="n">
-        <v>221.0282763110739</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="U44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="V44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="W44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="X44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="Y44" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
     </row>
     <row r="45">
@@ -30791,7 +30791,7 @@
         <v>137.0908046064029</v>
       </c>
       <c r="H45" t="n">
-        <v>153.0131652524659</v>
+        <v>109.7947729641688</v>
       </c>
       <c r="I45" t="n">
         <v>90.8215310046448</v>
@@ -30803,13 +30803,13 @@
         <v>97.03390299193956</v>
       </c>
       <c r="L45" t="n">
-        <v>83.6836116887838</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>78.10243564664633</v>
       </c>
       <c r="N45" t="n">
-        <v>65.61538793357938</v>
+        <v>108.8337802218764</v>
       </c>
       <c r="O45" t="n">
         <v>82.46949852711529</v>
@@ -30821,7 +30821,7 @@
         <v>107.7232378871912</v>
       </c>
       <c r="R45" t="n">
-        <v>84.46748786242041</v>
+        <v>129.9891576737412</v>
       </c>
       <c r="S45" t="n">
         <v>166.9891461999742</v>
@@ -30830,13 +30830,13 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U45" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="V45" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="W45" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -30876,49 +30876,49 @@
         <v>149.0790949574905</v>
       </c>
       <c r="J46" t="n">
-        <v>190.7103859620161</v>
+        <v>112.0165151440865</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>104.3983137891471</v>
       </c>
       <c r="L46" t="n">
-        <v>103.3860221017998</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>108.5102821731397</v>
       </c>
       <c r="P46" t="n">
         <v>112.1038084270827</v>
       </c>
       <c r="Q46" t="n">
-        <v>222.6873267611513</v>
+        <v>133.7641367861776</v>
       </c>
       <c r="R46" t="n">
-        <v>167.7671382542942</v>
+        <v>207.961183670535</v>
       </c>
       <c r="S46" t="n">
         <v>220.324356379764</v>
       </c>
       <c r="T46" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="U46" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="V46" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="W46" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="X46" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4723182759697345</v>
+        <v>0.4723182759697342</v>
       </c>
       <c r="H26" t="n">
-        <v>4.837129543775045</v>
+        <v>4.837129543775041</v>
       </c>
       <c r="I26" t="n">
-        <v>18.20905033432321</v>
+        <v>18.20905033432319</v>
       </c>
       <c r="J26" t="n">
-        <v>40.08742327508629</v>
+        <v>40.08742327508627</v>
       </c>
       <c r="K26" t="n">
-        <v>60.08065589688517</v>
+        <v>60.08065589688512</v>
       </c>
       <c r="L26" t="n">
-        <v>74.53536633509394</v>
+        <v>74.5353663350939</v>
       </c>
       <c r="M26" t="n">
-        <v>82.93495647537071</v>
+        <v>82.93495647537064</v>
       </c>
       <c r="N26" t="n">
-        <v>84.27693077696972</v>
+        <v>84.27693077696966</v>
       </c>
       <c r="O26" t="n">
-        <v>79.58031592029567</v>
+        <v>79.58031592029562</v>
       </c>
       <c r="P26" t="n">
-        <v>67.91995848229284</v>
+        <v>67.91995848229278</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.0050602241267</v>
+        <v>51.00506022412667</v>
       </c>
       <c r="R26" t="n">
-        <v>29.66926290288386</v>
+        <v>29.66926290288384</v>
       </c>
       <c r="S26" t="n">
-        <v>10.76295271366034</v>
+        <v>10.76295271366033</v>
       </c>
       <c r="T26" t="n">
-        <v>2.067573253057514</v>
+        <v>2.067573253057513</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03778546207757875</v>
+        <v>0.03778546207757873</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.252712556807769</v>
+        <v>0.2527125568077688</v>
       </c>
       <c r="H27" t="n">
-        <v>2.440671272327664</v>
+        <v>2.440671272327662</v>
       </c>
       <c r="I27" t="n">
-        <v>8.700848995355205</v>
+        <v>8.7008489953552</v>
       </c>
       <c r="J27" t="n">
-        <v>23.87579467629892</v>
+        <v>23.8757946762989</v>
       </c>
       <c r="K27" t="n">
-        <v>40.80753598241944</v>
+        <v>40.80753598241941</v>
       </c>
       <c r="L27" t="n">
-        <v>54.87076809109038</v>
+        <v>54.87076809109033</v>
       </c>
       <c r="M27" t="n">
-        <v>64.03159827537199</v>
+        <v>64.03159827537195</v>
       </c>
       <c r="N27" t="n">
-        <v>65.72632414975392</v>
+        <v>65.72632414975388</v>
       </c>
       <c r="O27" t="n">
-        <v>60.12674591732915</v>
+        <v>60.1267459173291</v>
       </c>
       <c r="P27" t="n">
-        <v>48.25701446621337</v>
+        <v>48.25701446621333</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.25853619883031</v>
+        <v>32.25853619883029</v>
       </c>
       <c r="R27" t="n">
-        <v>15.69034629022272</v>
+        <v>15.69034629022271</v>
       </c>
       <c r="S27" t="n">
-        <v>4.694024903863601</v>
+        <v>4.694024903863598</v>
       </c>
       <c r="T27" t="n">
-        <v>1.018608946080437</v>
+        <v>1.018608946080436</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01662582610577428</v>
+        <v>0.01662582610577427</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2118657184626536</v>
+        <v>0.2118657184626535</v>
       </c>
       <c r="H28" t="n">
-        <v>1.883678842331594</v>
+        <v>1.883678842331593</v>
       </c>
       <c r="I28" t="n">
-        <v>6.371379969767803</v>
+        <v>6.371379969767799</v>
       </c>
       <c r="J28" t="n">
-        <v>14.97890629530961</v>
+        <v>14.9789062953096</v>
       </c>
       <c r="K28" t="n">
-        <v>24.61494438138829</v>
+        <v>24.61494438138828</v>
       </c>
       <c r="L28" t="n">
-        <v>31.49865417943852</v>
+        <v>31.4986541794385</v>
       </c>
       <c r="M28" t="n">
-        <v>33.21091439501396</v>
+        <v>33.21091439501394</v>
       </c>
       <c r="N28" t="n">
-        <v>32.42123308074409</v>
+        <v>32.42123308074407</v>
       </c>
       <c r="O28" t="n">
-        <v>29.94625627870309</v>
+        <v>29.94625627870306</v>
       </c>
       <c r="P28" t="n">
-        <v>25.62419562206493</v>
+        <v>25.62419562206491</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.7408648432682</v>
+        <v>17.74086484326819</v>
       </c>
       <c r="R28" t="n">
-        <v>9.526253122875312</v>
+        <v>9.526253122875307</v>
       </c>
       <c r="S28" t="n">
-        <v>3.692241657208243</v>
+        <v>3.692241657208241</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9052444334313379</v>
+        <v>0.9052444334313372</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01155631191614476</v>
+        <v>0.01155631191614475</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4723182759697344</v>
+        <v>0.4723182759697345</v>
       </c>
       <c r="H29" t="n">
-        <v>4.837129543775044</v>
+        <v>4.837129543775045</v>
       </c>
       <c r="I29" t="n">
         <v>18.20905033432321</v>
       </c>
       <c r="J29" t="n">
-        <v>40.08742327508628</v>
+        <v>40.08742327508629</v>
       </c>
       <c r="K29" t="n">
-        <v>60.08065589688515</v>
+        <v>60.08065589688517</v>
       </c>
       <c r="L29" t="n">
-        <v>74.53536633509393</v>
+        <v>74.53536633509394</v>
       </c>
       <c r="M29" t="n">
-        <v>82.93495647537068</v>
+        <v>82.93495647537071</v>
       </c>
       <c r="N29" t="n">
-        <v>84.27693077696971</v>
+        <v>84.27693077696972</v>
       </c>
       <c r="O29" t="n">
-        <v>79.58031592029565</v>
+        <v>79.58031592029567</v>
       </c>
       <c r="P29" t="n">
-        <v>67.91995848229283</v>
+        <v>67.91995848229284</v>
       </c>
       <c r="Q29" t="n">
-        <v>51.00506022412669</v>
+        <v>51.0050602241267</v>
       </c>
       <c r="R29" t="n">
-        <v>29.66926290288385</v>
+        <v>29.66926290288386</v>
       </c>
       <c r="S29" t="n">
-        <v>10.76295271366033</v>
+        <v>10.76295271366034</v>
       </c>
       <c r="T29" t="n">
-        <v>2.067573253057513</v>
+        <v>2.067573253057514</v>
       </c>
       <c r="U29" t="n">
         <v>0.03778546207757875</v>
@@ -33251,43 +33251,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2527125568077689</v>
+        <v>0.252712556807769</v>
       </c>
       <c r="H30" t="n">
         <v>2.440671272327664</v>
       </c>
       <c r="I30" t="n">
-        <v>8.700848995355203</v>
+        <v>8.700848995355205</v>
       </c>
       <c r="J30" t="n">
-        <v>23.87579467629891</v>
+        <v>23.87579467629892</v>
       </c>
       <c r="K30" t="n">
-        <v>40.80753598241943</v>
+        <v>40.80753598241944</v>
       </c>
       <c r="L30" t="n">
-        <v>54.87076809109036</v>
+        <v>54.87076809109038</v>
       </c>
       <c r="M30" t="n">
-        <v>64.03159827537198</v>
+        <v>64.03159827537199</v>
       </c>
       <c r="N30" t="n">
-        <v>65.72632414975391</v>
+        <v>65.72632414975392</v>
       </c>
       <c r="O30" t="n">
-        <v>60.12674591732913</v>
+        <v>60.12674591732915</v>
       </c>
       <c r="P30" t="n">
-        <v>48.25701446621336</v>
+        <v>48.25701446621337</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.2585361988303</v>
+        <v>32.25853619883031</v>
       </c>
       <c r="R30" t="n">
-        <v>15.69034629022271</v>
+        <v>15.69034629022272</v>
       </c>
       <c r="S30" t="n">
-        <v>4.6940249038636</v>
+        <v>4.694024903863601</v>
       </c>
       <c r="T30" t="n">
         <v>1.018608946080437</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2118657184626535</v>
+        <v>0.2118657184626536</v>
       </c>
       <c r="H31" t="n">
         <v>1.883678842331594</v>
       </c>
       <c r="I31" t="n">
-        <v>6.371379969767801</v>
+        <v>6.371379969767803</v>
       </c>
       <c r="J31" t="n">
-        <v>14.9789062953096</v>
+        <v>14.97890629530961</v>
       </c>
       <c r="K31" t="n">
         <v>24.61494438138829</v>
       </c>
       <c r="L31" t="n">
-        <v>31.49865417943851</v>
+        <v>31.49865417943852</v>
       </c>
       <c r="M31" t="n">
-        <v>33.21091439501395</v>
+        <v>33.21091439501396</v>
       </c>
       <c r="N31" t="n">
         <v>32.42123308074409</v>
       </c>
       <c r="O31" t="n">
-        <v>29.94625627870308</v>
+        <v>29.94625627870309</v>
       </c>
       <c r="P31" t="n">
-        <v>25.62419562206492</v>
+        <v>25.62419562206493</v>
       </c>
       <c r="Q31" t="n">
         <v>17.7408648432682</v>
       </c>
       <c r="R31" t="n">
-        <v>9.52625312287531</v>
+        <v>9.526253122875312</v>
       </c>
       <c r="S31" t="n">
         <v>3.692241657208243</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9052444334313376</v>
+        <v>0.9052444334313379</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01155631191614475</v>
+        <v>0.01155631191614476</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>12.65881997533124</v>
       </c>
       <c r="J11" t="n">
-        <v>30.04008634641812</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.91646406331854</v>
+        <v>44.91646406331856</v>
       </c>
       <c r="L11" t="n">
         <v>103.0193684323635</v>
       </c>
       <c r="M11" t="n">
-        <v>57.51438245951189</v>
+        <v>57.51438245951192</v>
       </c>
       <c r="N11" t="n">
-        <v>2.114856693506766</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="P11" t="n">
-        <v>41.61262193843721</v>
+        <v>45.77231063244349</v>
       </c>
       <c r="Q11" t="n">
-        <v>103.0193684323635</v>
+        <v>41.0143610095819</v>
       </c>
       <c r="R11" t="n">
-        <v>19.00938430016565</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.66854233882891</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>99.22223394442</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>99.22223394442014</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>92.90914406732745</v>
       </c>
       <c r="K13" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>81.83751080473782</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>103.0193684323635</v>
+        <v>98.55172656386294</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.41537703827424</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.65881997533124</v>
       </c>
       <c r="J14" t="n">
-        <v>63.9671779598139</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>37.62886851827077</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>43.69461057652059</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="M14" t="n">
-        <v>57.51438245951186</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="O14" t="n">
-        <v>54.40776371002283</v>
+        <v>54.40776371002289</v>
       </c>
       <c r="P14" t="n">
-        <v>103.0193684323635</v>
+        <v>41.61262193843724</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.0143610095819</v>
+        <v>1.802786004418694</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>84.72580417314812</v>
       </c>
       <c r="S14" t="n">
-        <v>6.668542338828882</v>
+        <v>6.668542338828939</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>99.22223394442028</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>99.22223394442</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35799,34 +35799,34 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>55.84656425392346</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>100.5273454222668</v>
+        <v>100.5273454222669</v>
       </c>
       <c r="L16" t="n">
-        <v>101.5396371096141</v>
+        <v>94.34381703615456</v>
       </c>
       <c r="M16" t="n">
-        <v>8.375126057882945</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>54.53138419274276</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>22.90275488695842</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>37.15852095711977</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>103.0193684323635</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,10 +35899,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>98.85696970782362</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="Q17" t="n">
-        <v>103.0193684323635</v>
+        <v>91.9715556059664</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35911,13 +35911,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.88541410185718</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>103.0193684323635</v>
       </c>
       <c r="J20" t="n">
-        <v>8.64175047973324</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36133,28 +36133,28 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>103.0193684323635</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>98.85696970782358</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>83.32980512623317</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.88541410185718</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>98.85696970782362</v>
+        <v>15.52716458159037</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>103.0193684323635</v>
-      </c>
-      <c r="O23" t="n">
-        <v>103.0193684323635</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>103.0193684323635</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>83.32980512623317</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>220.4049731565565</v>
       </c>
       <c r="K26" t="n">
-        <v>32.25764408798728</v>
+        <v>356.403056659152</v>
       </c>
       <c r="L26" t="n">
-        <v>448.6970051516398</v>
+        <v>31.03579060118938</v>
       </c>
       <c r="M26" t="n">
-        <v>494.3690959770132</v>
+        <v>308.0262996282881</v>
       </c>
       <c r="N26" t="n">
         <v>484.4776308284456</v>
       </c>
       <c r="O26" t="n">
-        <v>242.8956447877178</v>
+        <v>230.2822857613542</v>
       </c>
       <c r="P26" t="n">
         <v>158.4856708985059</v>
@@ -36616,7 +36616,7 @@
         <v>233.2812002456646</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>72.06698419781688</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>101.4453082314379</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>69.37510996899162</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>170.8204182004292</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,16 +36726,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12.43485905414536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>25.02001813745483</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>45.83287658951349</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36744,7 +36744,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>31.92334557097468</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>87.86852544693562</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>72.79479135685455</v>
+        <v>155.7242242979403</v>
       </c>
       <c r="N28" t="n">
-        <v>19.22677631315293</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>54.53138419274273</v>
       </c>
       <c r="P28" t="n">
-        <v>171.0544977245231</v>
+        <v>80.16303080900002</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>183.0901754379751</v>
+        <v>38.00935942207094</v>
       </c>
       <c r="K29" t="n">
-        <v>181.4807146227292</v>
+        <v>356.4030566591521</v>
       </c>
       <c r="L29" t="n">
-        <v>448.6970051516398</v>
+        <v>185.5742788854552</v>
       </c>
       <c r="M29" t="n">
-        <v>494.3690959770131</v>
+        <v>494.3690959770132</v>
       </c>
       <c r="N29" t="n">
-        <v>484.4776308284457</v>
+        <v>292.210791592363</v>
       </c>
       <c r="O29" t="n">
-        <v>230.2822857613543</v>
+        <v>422.549124997437</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>233.2812002456646</v>
       </c>
       <c r="R29" t="n">
-        <v>72.06698419781689</v>
+        <v>72.06698419781692</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.30500724571493</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>81.51541095471421</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>114.1644035894364</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>56.65601461099259</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36966,31 +36966,31 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>25.02001813745488</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>43.65136621787036</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>46.84579121315147</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.48772559608661</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>31.92334557097474</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.25032409199621</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>87.86852544693562</v>
+        <v>87.86852544693566</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>43.62041587085722</v>
       </c>
       <c r="O31" t="n">
-        <v>13.74036749036006</v>
+        <v>246.7982234288255</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.49970098178854</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>28.13813392047378</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>356.403056659152</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>443.9841695322503</v>
+        <v>448.6970051516399</v>
       </c>
       <c r="M32" t="n">
         <v>494.3690959770132</v>
@@ -37084,10 +37084,10 @@
         <v>422.549124997437</v>
       </c>
       <c r="P32" t="n">
-        <v>15.795158288703</v>
+        <v>203.3566740128555</v>
       </c>
       <c r="Q32" t="n">
-        <v>41.0143610095819</v>
+        <v>233.2812002456646</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>101.4453082314379</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>86.27681685153766</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>69.37510996899145</v>
+        <v>84.54360134889151</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12.43485905414539</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>43.18774427859221</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>113.8865654147195</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>88.88081713428292</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>219.0930487630873</v>
       </c>
       <c r="O34" t="n">
-        <v>38.49172152801526</v>
+        <v>54.53138419274276</v>
       </c>
       <c r="P34" t="n">
-        <v>22.90275488695842</v>
+        <v>80.16303080900003</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.50270244990504</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>24.49970098178854</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>30.42048752506862</v>
       </c>
       <c r="J35" t="n">
-        <v>175.2567254380182</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>386.8235441842206</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>425.9396246944743</v>
+        <v>425.9396246944741</v>
       </c>
       <c r="M35" t="n">
-        <v>425.9396246944743</v>
+        <v>425.9396246944741</v>
       </c>
       <c r="N35" t="n">
-        <v>77.55119394153007</v>
+        <v>249.7327233020389</v>
       </c>
       <c r="O35" t="n">
-        <v>72.16943125976022</v>
+        <v>425.9396246944741</v>
       </c>
       <c r="P35" t="n">
-        <v>69.82292519867636</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>51.38669711082849</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>102.4874717228855</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>24.43020988856632</v>
       </c>
       <c r="T35" t="n">
-        <v>1.659050450077427</v>
+        <v>1.659050450077483</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>43.21839228829722</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>43.21839228829705</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>55.44050566252344</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>105.7109113399364</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37476,19 +37476,19 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>78.69387081792952</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>88.92318997497368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.362970381387258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37506,7 +37506,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.102673409056479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>30.42048752506865</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>98.27707678787301</v>
+        <v>81.72884550955133</v>
       </c>
       <c r="K38" t="n">
-        <v>165.0840358858502</v>
+        <v>386.8235441842207</v>
       </c>
       <c r="L38" t="n">
-        <v>61.45627812625806</v>
+        <v>155.6443257425486</v>
       </c>
       <c r="M38" t="n">
-        <v>425.9396246944743</v>
+        <v>75.2760500092493</v>
       </c>
       <c r="N38" t="n">
-        <v>425.9396246944743</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>72.1694312597603</v>
+        <v>425.9396246944741</v>
       </c>
       <c r="P38" t="n">
         <v>381.1729976596573</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>51.38669711082854</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>102.4874717228855</v>
       </c>
       <c r="S38" t="n">
-        <v>24.43020988856635</v>
+        <v>24.43020988856632</v>
       </c>
       <c r="T38" t="n">
-        <v>1.659050450077512</v>
+        <v>1.659050450077483</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37631,10 +37631,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>19.6771852758869</v>
       </c>
       <c r="O39" t="n">
-        <v>43.21839228829696</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37649,7 +37649,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>23.54120701241016</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>119.3013046593516</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37713,19 +37713,19 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>19.67100890201556</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.92318997497371</v>
+        <v>45.95278575216435</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92018850685718</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>2.362970381387314</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.102673409056564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>30.42048752506865</v>
       </c>
       <c r="J41" t="n">
-        <v>81.72884550955133</v>
+        <v>250.8254606816251</v>
       </c>
       <c r="K41" t="n">
-        <v>164.1362174230694</v>
+        <v>62.67813161305597</v>
       </c>
       <c r="L41" t="n">
-        <v>42.28932872937224</v>
+        <v>425.9396246944741</v>
       </c>
       <c r="M41" t="n">
-        <v>425.9396246944743</v>
+        <v>75.27605000924933</v>
       </c>
       <c r="N41" t="n">
-        <v>425.9396246944743</v>
+        <v>425.9396246944741</v>
       </c>
       <c r="O41" t="n">
-        <v>425.9396246944743</v>
+        <v>186.5040551948256</v>
       </c>
       <c r="P41" t="n">
-        <v>59.37428948817463</v>
+        <v>59.37428948817465</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>41.0143610095819</v>
       </c>
       <c r="R41" t="n">
-        <v>36.77105184990306</v>
+        <v>102.4874717228855</v>
       </c>
       <c r="S41" t="n">
-        <v>24.43020988856632</v>
+        <v>24.43020988856635</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.659050450077512</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>43.21839228829705</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>19.67718527588678</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37886,7 +37886,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>23.54120701241019</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.85534657921403</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37920,22 +37920,22 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>48.00204419431708</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>54.90821312115525</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>62.34383309604337</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.481996216621055</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>114.1770445880116</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>2.362970381387343</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>4.102673409056536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>30.42048752506862</v>
+        <v>30.42048752506865</v>
       </c>
       <c r="J44" t="n">
-        <v>81.72884550955133</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>386.8235441842207</v>
+        <v>62.67813161305597</v>
       </c>
       <c r="L44" t="n">
-        <v>425.9396246944743</v>
+        <v>61.45627812625806</v>
       </c>
       <c r="M44" t="n">
-        <v>109.6530902707965</v>
+        <v>425.9396246944741</v>
       </c>
       <c r="N44" t="n">
-        <v>425.9396246944743</v>
+        <v>292.210791592363</v>
       </c>
       <c r="O44" t="n">
-        <v>72.16943125976027</v>
+        <v>142.8795576518048</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>381.1729976596573</v>
       </c>
       <c r="Q44" t="n">
-        <v>51.38669711082854</v>
+        <v>263.7016877707333</v>
       </c>
       <c r="R44" t="n">
-        <v>102.4874717228855</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>24.43020988856635</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.659050450077512</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38087,7 +38087,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>43.21839228829705</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>43.21839228829697</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.69387081792956</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>127.4230153766622</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38193,10 +38193,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.92318997497368</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>40.19404541624079</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
